--- a/data/hotels_by_city/Dallas/Dallas_shard_85.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_85.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="804">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>ltbd1</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>I am a member of Choice Inn’s club.  This has to be the WORST Comfort Inn we have ever stayed at.  Makes one wonder, since they have gotten so much bigger, if they have lost control over quality. We checked in and all was fine. Went up to the room, room was unlocked.  Went in caution and all seemed fine, called down and they said the maid just probably left in ajar.  Unpacked and went out to dinner. Came back and tried to get back into the room and found all you had to do was just push on the door to the left and it would open.  Looked closely and the door strike was not centered.  Called down to the front desk, they will check and see if any other room available.  They called back in fifteen minutes later and said they had another room up two floors and would meet us there.  No offer to help up pack and move. So we stayed and just locked the room with the lock on the inside.  Went down to breakfast in the morning, at normal time. Since it was the weekend, a later start time at this location.  Not even coffee was made and several others waiting.  Told the lady at the from desk to have the manager call me. Never Did. Left and went on down the road and stopped at What a burger.More</t>
   </si>
   <si>
+    <t>dhare12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r571554317-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Betty H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r540072078-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -220,6 +229,9 @@
   </si>
   <si>
     <t>They were remodeling, so I didn't expect perfection. The room was so-so, but the bed had a 1/2 coverlet that had little black hairs all over it! It was disgusting. The sink stopper didn't work. The toilet wobbled. Half of the outlets didn't work. We lost food because the refrigerator didn't stay cold. On the last day, after realizing the electrical outlet problem, I tried another outlet and then it got cold. I injured myself in the fitness center because a machine was broken. They offered me 10% off the price....woopee! The receptionist was rarely at the front because of smoke breaks. They ran out of food in the breakfast.More</t>
+  </si>
+  <si>
+    <t>Ashley R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r533604259-Comfort_Inn-Denton_Texas.html</t>
@@ -243,6 +255,9 @@
   <si>
     <t>Our family all stayed here in October 2017. We are all from different parts of the country and were in town to visit family here. I’ve stayed at other Choice Hotels with no problem. However, this was not the case with this particular hotel. Each of us had some kind of problem with our room. We arrived very late on Friday night and were hungry. We were just going to grab something out of the vending machine but the lady working the front desk said the vending machine was out of order and would be repaired in the morning. It still wasn’t fixed on Sunday. In our room, our entry way light did not work upon arrival. We also discovered our carpet was soaked from the leaking air conditioner. It was leaking so bad you could actually hear it dripping into the soaked carpet. The next night, the lights and the fan burned out in the bathroom. We found some screws on the floor in the room. We also discovered trash under one of the beds to include a Kleenex and a bag of sunflower seeds. The walls are scuffed up and in need of some serious attention. The door to our room did not shut on its own. It had to be pushed shut and made sure the door clicked to ensure it was shut. The lack of appropriate housekeeping and cleaning is a real issue here.
 When my...Our family all stayed here in October 2017. We are all from different parts of the country and were in town to visit family here. I’ve stayed at other Choice Hotels with no problem. However, this was not the case with this particular hotel. Each of us had some kind of problem with our room. We arrived very late on Friday night and were hungry. We were just going to grab something out of the vending machine but the lady working the front desk said the vending machine was out of order and would be repaired in the morning. It still wasn’t fixed on Sunday. In our room, our entry way light did not work upon arrival. We also discovered our carpet was soaked from the leaking air conditioner. It was leaking so bad you could actually hear it dripping into the soaked carpet. The next night, the lights and the fan burned out in the bathroom. We found some screws on the floor in the room. We also discovered trash under one of the beds to include a Kleenex and a bag of sunflower seeds. The walls are scuffed up and in need of some serious attention. The door to our room did not shut on its own. It had to be pushed shut and made sure the door clicked to ensure it was shut. The lack of appropriate housekeeping and cleaning is a real issue here.When my sisters arrived, their air conditioner was not working in their room. They called for maintenance and were told that they probably froze up the A/C but knew that wasn’t possible because they had just arrived. They also had a stain on their bedding and a stain on the floor. It looks like blood stains.In my aunt’s room, an open condom was discovered in one of the drawers. My uncle reported this to the front desk on Saturday morning and was assured housekeeping would take care of it. On Sunday morning, my aunt discovered it. Clearly it had not been taken care of.The refrigerator did not work in my mom’s room.The front desk was friendly. When we checked out and began to tell them our issues, she said the general manager had already told her to comp our first night, which we greatly appreciated. We clearly weren’t the only ones with problems as the lady working the front desk had a list of complaints/maintenance issues from other guests. We definitely won’t be back. More</t>
+  </si>
+  <si>
+    <t>Txgirl9226</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r531699745-Comfort_Inn-Denton_Texas.html</t>
@@ -271,6 +286,9 @@
 4) after we killed said roach, the next day, after the cleaning staff "cleaned" my room, I found severed leg of roach still on floor. Along with my hair. They didn't clean at all. I'm fine with them not changing sheets while I'm there but I do...I'm the kind of person that likes to leave positive reviews but I just can't do it with this hotel. In fact I'm being generous with the 2 stars. It was bad from the second I walked in the door.  Let me count the ways...1) they were being remodeled and didn't bother to say anything. The whole lobby was a construction zone. I don't go on vacation to be in this atmosphere. You had to walk on planks to get across lobby. (new flooring) even though I appreciate the update, I don't want to be there while it's happening. They should have mentioned it. 2) the builder apparently didn't believe in insulation. Normally when I go to a hotel, as soon as I close my door, i'm in a sound bubble. I don't hear anything outside my room. In this hotel, I could hear my neighbor's TV every morning at 6:00 am! You could hear everyone talking in the hallway and every footstep upstairs. I don't blame the hotel guests as nobody was being rude or overly noisy. It was just the hotel. 3) I found a giant roach in the bathroom. 4) after we killed said roach, the next day, after the cleaning staff "cleaned" my room, I found severed leg of roach still on floor. Along with my hair. They didn't clean at all. I'm fine with them not changing sheets while I'm there but I do expect them to clean. If I wanted a dirty bathroom, I could stay at home. Oh not once was my toilet paper roll on the holder. The cleaning crew always left it on the counter. 5) tv remote held together by tape6) breakfast on day one was Green eggs and sausage. Not my choice. However the Texas shaped waffle was excellent7) I complained to front desk about noise and construction..."Sorry I'm not responsible, there is nothing I can do". 8) the pool and hot tub looked promising in the pictures but hot tub wouldn't come on and once we saw the water, my husband refused to get in. He said considering everything that was going on in the hotel, he didn't want to take the chance with the pool water. 9) elevator was dirty and missing buttons and railsI'm sure I could come up with #10 but I think I've said enough. Stay at La Quinta nextdoor instead.More</t>
   </si>
   <si>
+    <t>Vicky R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r514473644-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -289,6 +307,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Jim F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r509480902-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -301,6 +322,9 @@
     <t>I'm not sure this hotel even rated 3 stars. The lobby was dirty. The elevator was filthy. The hallways had fork and knives on the floor. The door squeaked, the toilet ran all night, the AC sounded like a train, and to top it off the next room conversation at 3am could be clearly heard even though the were just talking in a normal voice. We stay in many Choice Hotels, but not this one again!</t>
   </si>
   <si>
+    <t>qbethb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r507256670-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -319,6 +343,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Cooperton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r504184670-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -337,6 +364,9 @@
     <t>I was traveling through to take my kids to see their grandparents in south Texas.  After over 12 hours on the road, we were happy to see the hotel.  I was traveling with a 10 and a 7 year old and the first thing we had to do was to try out the pool.  After spending all day in the truck, the kids were ready to expend some energy.  The pool was open and the water temperature was not too cold.  They got to splash around and then we dropped into bed.  The beds were comfortable and we had a good night's sleep and were ready to get back on the road in the morning. The breakfast was typical of this type of hotel and was filling.  If you are traveling during the week, make sure you are up and down to breakfast before 9 am because they were quick to put away breakfast as 9 approached.  There was a very happy and friendly breakfast attendant that morning.  After comparing this to other nearby hotels, I feel the value for the price was excellent.  It is not fancy but it served our needs very well.  BTW, it is pet friendly, but they only allow pets on certain floors so my daughter did not have any problems even though she has cat allergies.More</t>
   </si>
   <si>
+    <t>Brad S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r495361215-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -355,6 +385,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Andy_L_R_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r492702984-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -371,6 +404,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Tiffany D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r489462176-Comfort_Inn-Denton_Texas.html</t>
@@ -398,6 +434,9 @@
 The bathroom was nice and large enough for our needs - includes a hair dryer, some nice shea butter soap, citrus mint shampoo &amp; conditioner, 4 towels, hand towels, and wash cloths (which is nice, considering many places we have gone to don't provide enough towels). There was...My husband, 18-year-old stepson, 3-year-old daughter, and I stayed here on a Sunday and Monday night during Memorial Day weekend. They allowed us to check in 2 hours early without an extra fee, which was nice. We paid $74/night, plus tax, on their website (they took $1 off a night for signing up to be Choice members). The lady at the front desk who checked us in was friendly. She noticed I was having some trouble pushing my loaded cart from my van, so she kindly assisted me. She also gave my daughter a banana (she asked if she could first), so that was nice. In fact, all the ladies I saw working the front desk where always very polite and helpful.We had a 2 Queen room. The room was nice and cool. It had a thermostat on the wall to adjust as needed. The beds were wonderful. Not too hard and not too soft. The sheets and duvet cover were sooooo comfortable, as were the pillows. They provide you with 4 pillows per bed, 2 firm ones and 2 fluffy ones, as well as an extra pillow in the closet. The bathroom was nice and large enough for our needs - includes a hair dryer, some nice shea butter soap, citrus mint shampoo &amp; conditioner, 4 towels, hand towels, and wash cloths (which is nice, considering many places we have gone to don't provide enough towels). There was a little sign that stated if you forgot any toiletries to let them know and they would provide. There was plenty of bathroom counter space, as well as 2 full shelves below that. There's a closet (with a double door) to hang your clothes, with some hangers included, and an iron and ironing board.There's a flat screen TV on top of a 3 drawer dresser.There's a desk with a drawer.The nightstand in between the 2 beds as a drawer and then a shelf beneath that.There's a rolling chair at the desk, a chair next to that, and an armchair and ottoman. There was a lamp behind the armchair that had electrical tape all around the part where you can turn it off and on, so I just left it alone, assuming it didn't work. There is a fridge, but no freezer like many hotels have built in to the mini fridge, so that was kind of a bummer as my husband had bought popsicles I had to let go to waste. There's a microwave, an ice bucket, a couple small plastic cups, a mini coffee maker, and some starter coffee, cream, and sugar. There seemed to be plenty of electrical outlets. I liked how, on the nightstand, there was a Cubie Mini power/charging station with 2 power outlets &amp; 2 USB charging ports. There were...More</t>
   </si>
   <si>
+    <t>MrsMarx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r487944584-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -413,6 +452,9 @@
     <t>Our king room was comfortable enough, and the staff was pleasant and helpful. But the TV was not HD, and the picture was awful. And it had the old 4-cup glass coffee pot, with the provided coffee that really only flavors 2 cups. Not a bad place, but less than expected from a Comfort Inn.</t>
   </si>
   <si>
+    <t>edgars20132015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r484193126-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -431,6 +473,9 @@
     <t>I stay in Choice Hotels most of the time and travel a great deal throughout the year.  I had stayed in this Comfort Inn four years ago.  I was very surprised by a number of things for Friday night.  We booked a handicap room and was there for a special weekend in Denton as two major universities were having graduation as well as it is Mother's Day weekend.  The quality of the room.  Shower stall needs completely refinished or replaced.  The floor is chipping off.  Bugs.  Not water bugs but little fast ones like roaches, I won't say these bugs in the bathroom were roaches but regardless the room needed sprayed.  The upholstered furniture has many stains that had tried to be cleaned but still there were numerous circles on the upholster.  There was no lightbulb in the lamp on the desk. I asked for a bulb as I was heading out for dinner. Inquired when I returned and was told NO as the maintenance man had to take care of that. A light bulb, really, so if you want to be sure you have plenty of light I suggest you bring your own light bulb just in case. The bed was ok but not particularly outstanding. Had family stay at the Quality same night. Their price was half of what we paid and room was comparable.  Our cost was $141.00 for the one night.  In returning to Denton I...I stay in Choice Hotels most of the time and travel a great deal throughout the year.  I had stayed in this Comfort Inn four years ago.  I was very surprised by a number of things for Friday night.  We booked a handicap room and was there for a special weekend in Denton as two major universities were having graduation as well as it is Mother's Day weekend.  The quality of the room.  Shower stall needs completely refinished or replaced.  The floor is chipping off.  Bugs.  Not water bugs but little fast ones like roaches, I won't say these bugs in the bathroom were roaches but regardless the room needed sprayed.  The upholstered furniture has many stains that had tried to be cleaned but still there were numerous circles on the upholster.  There was no lightbulb in the lamp on the desk. I asked for a bulb as I was heading out for dinner. Inquired when I returned and was told NO as the maintenance man had to take care of that. A light bulb, really, so if you want to be sure you have plenty of light I suggest you bring your own light bulb just in case. The bed was ok but not particularly outstanding. Had family stay at the Quality same night. Their price was half of what we paid and room was comparable.  Our cost was $141.00 for the one night.  In returning to Denton I would probably look elsewhere primarily over the lightbulb.  Seems petty but it seemed like a very simple request and one that should be easy to resolve.  They have plenty of signs up if you forgot something just let us know and we will provide compimentary.  The entrance floor was also dirty on Friday and was still dirty when we were leaving on Saturday morning.  I rarely rate a hotel poorly but this one is not up to the standards of what I usually find at a Comfort Inn.More</t>
   </si>
   <si>
+    <t>Missinginmichigan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r459493265-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -449,6 +494,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Lesliecaryl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r454309698-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -464,6 +512,9 @@
     <t>We enjoyed our overnight stop, and slept relatively well after being on the road for 10 hours. Only reason it doesn't get a five star is because of hallway noise in the middle of the night. It sounded like a bunch of girls decided to visit each other in the middle of the night. We were on the first floor, right off the lobby, so the desk person should have quieted them down. We thought about it, but in this day and age that can be dangerous.Also, the other thing was the shower spigot would barely work.Otherwise, it was very clean, well appointed and comfortable.</t>
   </si>
   <si>
+    <t>jross777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r450291370-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -482,6 +533,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Tamara A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r441168481-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -500,6 +554,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Megan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r439687751-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -515,6 +572,9 @@
     <t>I'm currently sitting in my bed at the hotel. It is seriously the only thing in the room clean  (thankfully). Walls are marked with scratches &amp; dirty hand prints, window covered with hand prints, carpet, lamps shades, &amp; wall decor covered in dust, air conditioner is disgusting, bathroom floor missing all the grout, remote missing battery cover, bed skirt has stains. I am not the least bit impressed. The parking lot is over crowded, we could not fit our standard sized truck in a space.</t>
   </si>
   <si>
+    <t>traci b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r403185088-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -533,6 +593,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Steven S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r384456770-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -551,6 +614,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Liz L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r382340292-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -569,6 +635,9 @@
     <t>Here for one night to tour UNT. Not what I expect from this chain at all. Check in was fine- pleasant front desk person. Hotel is old and in dire need of renovations. There was a very odd/off-putting odor in the elevator, and the hallway consistently, and things in the room just aren't as clean as I expect. Dust in a lot of places, like the bathroom counters, and a general dingy feeling on light switches and surfaces. The AC wouldn't turn off, and was filthy. Disappointed in what is normally a safe place to stay. Area is a tad sketchy for Denton IMO.  I am probably going to visit Denton a lot in the coming years, but will find somewhere else to stay. More</t>
   </si>
   <si>
+    <t>Penny G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r378272982-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -587,6 +656,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Jeanette G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r365882893-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -608,6 +680,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>mumontour08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r363158704-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -629,6 +704,9 @@
     <t>In the hallway there were very dusty skirting boards and needs a good vacuuming of hall carpets.  It didn't seem dirty - just very dusty  Not much in immediate surrounds apart from a Dennys across the car park.  There was much more on the other side of the interstate though I couldn’t work out a way to walk there which was safe from the traffic (in fairness only 2 or 3 minutes to drive).  I thought the bed might be a bit too bouncy for my liking but turned out to be very comfortable.  There was very little noise from freeway considering how close it is to the hotel. Towels a bit thin.More</t>
   </si>
   <si>
+    <t>Landon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r360455788-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -644,6 +722,9 @@
     <t xml:space="preserve">Great value and what you'd come to expect from a hotel in this price range. Rooms were clean and up kept. Pool and fitness area were meh. Wifi was a pain to connect to but since it was free no worries. Free breakfast was nicer thank most continental breakfasts so that was a plus. Recommended! </t>
   </si>
   <si>
+    <t>Phyllis T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r357670948-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -662,6 +743,9 @@
     <t>The front desk person was really nice. We had a basket of goodies since we are an elite gold member of Choice Hotels. However, the TV would not turn on. Someone had unplugged the TV from the back. We had to call the front desk to then get the TV on the correct channel to get cable. There was only one clothes hanger. We went down to the desk and all they had were wire hangers. In the bathroom, there was a used bar of soap in the holder. The base of the lamps were dirty we were staying here close to the hospital for a procedure the next morning so we needed a good night's sleep.  The radio came on full blast at midnight. Then at 12:15 am, the alarm on the same clock went off so I unplugged the clock.  The parking lot was a crowded mess due to trucks and moving vans!More</t>
   </si>
   <si>
+    <t>DLH123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r357153321-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -680,6 +764,9 @@
     <t>Checked in, clerk was nice. Went to the room, dropped my phone, when I picked it up by night stand was a empty condom wrapper. Upon further looking I don't think the furniture has ever been moved, as the dirt and dust were thick. Something was splattered on the other night stand, (white in color), not guessing that one. Sheets seemed clean, went to sleep during the night I got bit by a spider we are guessing. Went to have breakfast, no food available. The bathroom fan had a HUGE water stain around it. The bathroom floor was covered in hair, and the bath tub faucet would not stop leaking. Just a bad experience. Would I stay here again......NO.More</t>
   </si>
   <si>
+    <t>David_MD2713VH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r344113052-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -698,6 +785,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Alamo341</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r333755236-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -716,6 +806,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>GMA1ST2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r330666025-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -734,12 +827,18 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>GL M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r325608827-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
     <t>325608827</t>
   </si>
   <si>
+    <t>Steve V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r320709602-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -755,6 +854,9 @@
     <t>Friendly spot, just north of the worst of the Dallas/FW traffic.  Lots of construction (road) going on in the area.  Hotel staff were friendly.  UNT is only a short distance away.  Clean and fair price.  We'd stay here again, if going back to UNT.</t>
   </si>
   <si>
+    <t>legendaryrob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r318033158-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -773,6 +875,9 @@
     <t>stayed here using my choice points(10,000) due to some constructive activity,overall, the property is good, the room itself was very nice-decent channel selection on teevee,however: the following needs attention: 1: the Jacuzzi in the the indoor pool area is neither hot nor active the in room coffee pot didn't  work (no biggie, as comfort has 24/7 lobby coffee) and the  combination snack/drink machine doesn't work.-I only lost a buck and a quarter, and didn't mention it -I aint hatin;.-wifi seems efficient and there is a courtesy pc in the lobby.-the beds are VERY good., and the ac uses a very smart thermostat.so, 3 out of 5.-as choice privlege member i was allowed a late checkout (noon) and wasnt asked for a cc to use my points-I approve  of nlin this.the qouted price online for customers hovers around 90, i think it actually wortjh around $70, all things considered-the breakfast was alright,, but I think the eggs were a bit dry.More</t>
   </si>
   <si>
+    <t>Prstdnr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r314482063-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -792,6 +897,9 @@
   </si>
   <si>
     <t>Stayed for 4 nights to attend a wedding.  Check-in was smooth.  Room was nice (and I know other reviews were complaining about loose tiles and no tp in bathrooms, but we had no such experience).  I can't say enough good things about front desk attendant, Michelle!  She took great care of us- when our a/c wasn't working on a Friday evening, she got right on the phone and arranged for mechanical help to arrive.  He got there quickly and fixed the problem.  When the printer wasn't working properly, Michelle bailed us out so we could print our boarding passes.  I also walked in on the end of a very unpleasant tirade a woman was giving to Michelle.  Woman though they had lost her reservation.  Michelle was very gracious when letting this rude woman know that she was at the wrong hotel.  The lady didn't even apologize- just walked out.  Breakfast was good except for Sunday morning when they closed the doors 15 minutes prior to posted closing time and started cleaning up around us.  They were already out of a lot of items when we arrived 30 minutes before closing.  Once the doors were closed to the motel guests, then the housekeeping crew descended upon the room and snarfed up what was left.  So, overall, we liked the facility, the room, and perks.  We didn't know there was a pool- never smelled any chlorine or mold as mentioned in other...Stayed for 4 nights to attend a wedding.  Check-in was smooth.  Room was nice (and I know other reviews were complaining about loose tiles and no tp in bathrooms, but we had no such experience).  I can't say enough good things about front desk attendant, Michelle!  She took great care of us- when our a/c wasn't working on a Friday evening, she got right on the phone and arranged for mechanical help to arrive.  He got there quickly and fixed the problem.  When the printer wasn't working properly, Michelle bailed us out so we could print our boarding passes.  I also walked in on the end of a very unpleasant tirade a woman was giving to Michelle.  Woman though they had lost her reservation.  Michelle was very gracious when letting this rude woman know that she was at the wrong hotel.  The lady didn't even apologize- just walked out.  Breakfast was good except for Sunday morning when they closed the doors 15 minutes prior to posted closing time and started cleaning up around us.  They were already out of a lot of items when we arrived 30 minutes before closing.  Once the doors were closed to the motel guests, then the housekeeping crew descended upon the room and snarfed up what was left.  So, overall, we liked the facility, the room, and perks.  We didn't know there was a pool- never smelled any chlorine or mold as mentioned in other reviews.  Maybe our noses just weren't as sensitive.  If we ever get back to Denton, we'd definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>TravelGuest707</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r313618805-Comfort_Inn-Denton_Texas.html</t>
@@ -824,6 +932,9 @@
 Most hotels offer both shampoo and conditioner, but since we did not have conditioner, I am not sure if they don't provide it or if it was another thing housekeeping...We waited kind of late to book our room for family weekend, but we did end up getting a room here with one king bed.  When we arrived, the check in was pretty efficient and parking was available, even though they had a no vacancy sign on the entrance.  The elevator (they only have one) was pretty slow.  Our room was nice, and while we had trouble getting the water to come out of the shower head, they sent someone up immediately with WD-40 to fix it.The hotel is only a couple miles from campus so the daily back and forth commute was pretty easy, even with all the construction in the area.It's a non-smoking hotel, but it does have a smell.  Not sure if it's old smoke or the cleaning products they use.We had ordered a rollaway, but did not use it as the king bed pretty much takes up the room, and where we would have put it, would have blocked the door and may not have been smart in case of an emergency. The bed and pillows were comfy.We used the in-room refrigerator, but after the first night, housekeeping did not refill our coffee supply, so I just got it from the lobby.Most hotels offer both shampoo and conditioner, but since we did not have conditioner, I am not sure if they don't provide it or if it was another thing housekeeping forgot.The breakfast has decent choices - bagels, english muffins, danish, yogurt, cereal, eggs, bacon, fruit, juice etc.Internet was fine although I felt like I had to log in multiple times - morning, night, but signal strength was good.Our room was by the elevators, but we not only did not hear the elevator, I did not hear other people talking, walking or watching TV from in our room.AC worked and kept the room nice and cool.I would most likely stay somewhere else in the future, because I like to be a little more pampered in my hotel experience, but if other options were way too expensive or too far, I would stay here again.There is a Waffle House and Howard Johnson's in the same vicinity, so the impression is you are staying in a budget area.  Our room faced the back road, not the parking lot/freeway.  Still it felt, safe.More</t>
   </si>
   <si>
+    <t>Lizd209</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r308260100-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -842,6 +953,9 @@
     <t>In town for a family gathering. The rooms are nice. We had about 12 rooms of various  sizes. We needed to have a place for the family to visit at night after having dining out. The entrance way Lobby was the best they could do. The Breakfast room area was off limits to us even though a request was sent earlier. After more than 2 hours of sitting and stand around the lobby, there was word sent that we could sit in the Breakfast room. But most off the family had become tired of the awkward arrangement and went to their rooms. For 2 nights we made the Lobby our living room.More</t>
   </si>
   <si>
+    <t>Chelsea O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r308113061-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -860,6 +974,9 @@
     <t>We needed a room just for the evening, this was one of the cheapest hotels in the area.  There was definitely a musky smell in the lobby and 1st floor area.  It didn't bother us to bad since our room was on the second floor.  The front desk could have been a little more friendly, I felt like I was bothering her when I needed to ask a question.  The rooms were a nice size and the air conditioner worked GREAT!  I enjoyed the bed, but the tiles in the bathroom were uneven in some spots.  Breakfast in the morning was disappointing.  We went down about 9am when breakfast gets done at 10am, there was just a few pieces of some bread (that were hard) , no biscuits to go with the pot of gravy, some scramble eggs and 2 pieces of sausage left and no fruit.  We just had some juice and decided to stop after we left.  That was a major reason why we chose the hotel and it left a bad impression as we left that morning.  If all you need is a nice bed to sleep in overnight, this is not too bad of a place, but the amenities need some work.More</t>
   </si>
   <si>
+    <t>953traver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r307897013-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -876,6 +993,9 @@
   </si>
   <si>
     <t>We stayed at another Comfort Inn in Perry, Oklahoma on our way down south and it couldn't' have been nicer so we assumed there was a standard similar to Hampton Inn, which is our first choice in hotels.  Well...our assumptions were wrong.  Upon stepping into the lobby I immediately smelled mould - typically I turn around when I encounter smells like that in a hotel, but we were really tired.  Our boys used the pool which was incredibly humid/hot -  each of the vents had mould surrounding them.  Aside from the smell it would have been a decent stay.  The beds were soft (which is a MUST for me) and the rooms adequate - even nice.  The tilling however in the bathroom was loose and you had to wear shoes going in there, which I thought was poor considering it could cause an accident or worse.  The mouldy smell was everywhere and it was evident that they had something going on as the flooring under the carpet in our room was warped in spots (adjacent to the tiling issue in the bathroom).  My suspicion was that our room was above the pool and there was some major issues going on.  As a suggestion....as the hotel owner I would purchase some antimicrobial agents and use them regularly and/or thermal fog until your pool issue is resolved otherwise the foul smell will turn off many potential customers.  Better yet...ditch the indoor pool...We stayed at another Comfort Inn in Perry, Oklahoma on our way down south and it couldn't' have been nicer so we assumed there was a standard similar to Hampton Inn, which is our first choice in hotels.  Well...our assumptions were wrong.  Upon stepping into the lobby I immediately smelled mould - typically I turn around when I encounter smells like that in a hotel, but we were really tired.  Our boys used the pool which was incredibly humid/hot -  each of the vents had mould surrounding them.  Aside from the smell it would have been a decent stay.  The beds were soft (which is a MUST for me) and the rooms adequate - even nice.  The tilling however in the bathroom was loose and you had to wear shoes going in there, which I thought was poor considering it could cause an accident or worse.  The mouldy smell was everywhere and it was evident that they had something going on as the flooring under the carpet in our room was warped in spots (adjacent to the tiling issue in the bathroom).  My suspicion was that our room was above the pool and there was some major issues going on.  As a suggestion....as the hotel owner I would purchase some antimicrobial agents and use them regularly and/or thermal fog until your pool issue is resolved otherwise the foul smell will turn off many potential customers.  Better yet...ditch the indoor pool altogether and either build one outside or not directly attached to the hotel.  I am not wanting to complain as such, but my throat and eyes started reacting to the mouldy air within about an hour if not less.  I honestly do not know how anyone could work at that hotel on a regular basis.  I do believe that if an air test would be performed it would fail miserably.  It is a shame because the breakfast was great and the beds comfortable - I just couldn't get past the air quality which for me is a major deal breaker.  You shouldn't get sick when staying overnight in a hotel.  I hope this review serves to help improve the situation as opposed to bashing.  The people working there were nice and helpful so that certainly isn't my complaint.  Health issues are serious however and this hotel definitely needs a plan of action to rectify a situation that will only get worse if left alone.More</t>
+  </si>
+  <si>
+    <t>citygirlinthewoods</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r305564185-Comfort_Inn-Denton_Texas.html</t>
@@ -900,6 +1020,9 @@
 My husband and I then came down with...We arrived on a Sunday for a 12 hour stay in Denton. I chose the hotel because it had a hot tub and allowed dogs. It was the cheapest hotel meeting our needs. We arrived at 4 on a Sunday. They must have been short-staffed because it was well past late check-out time and neither of our rooms were ready. The manager turned my father and myself away. My husband, who had driven 5 hours since the morning was exhausted and sunburt just from being in the car. He had to demand the keys to our room. It turned out it WAS ready but they didn't want to offer to check.The pool was tiny. The hot tub temp showed 104 but was clearly lower. It was hotter outside than in the hot tub. The rooms were decorated very well in a Victorian boutique style with high headboards and rich colors. That is about where the quality ended. We had a pet room which had gum ground into the carpet. It also had dark gray stains all over the carpet. The ceiling had a 6 foot long water peel across it. From the looks of the wall-mounted air conditioner unit, it may have been a roof leak. And this is the only hotel I have ever stayed at where they started us off with 1/3 toilet paper rolls with no additional rolls.My husband and I then came down with a nasty summer cold. Thanks previous hotel guest! Not! I do not recommend this hotel. They need major improvements.More</t>
   </si>
   <si>
+    <t>Gilda R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r302849228-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1050,9 @@
     <t>The hotel was packed full and I know the work load was heavy for these employees.  But one of your employees really stood out.  Her name is Michele.  She is so friendly and always had a welcoming smile and ready to help in any way to make our stay comfortable.  She certainly made our stay a happy one and whenever we are in that area again we will be booking at this hotel.  Thanks Michele for making our stay a wonderful experience.Gilda, Room 307More</t>
   </si>
   <si>
+    <t>marcarelisa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r297025622-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1077,9 @@
     <t>We were so fooled by reviews. We must have gotten the one room that hadn't been cleaned in months. Dust was on all furniture.  It too was very dirty and with stains.  The walls full of stains.  The tv didn't work.  It would start off bright, but get darker the longer it was on a channel.  Housekeeping didn't sweep or vacuum the floors or clean bathroom. The room itself is very dark because of color scheme. Dark yellow walls with dark red accent wall. The ceiling was also painted yellow! The internet connection was very slow to none as well as phone signal. Would never stay here again.More</t>
   </si>
   <si>
+    <t>Cedar_Park_chump</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r293898303-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1101,9 @@
     <t>I wanted a hotel in Denton that was north of the merge of I 35E and I-35W and this Comfort Inn was reasonably priced.  The people at the desk were friendly and our room was spacious and clean.  One thing I liked was that after slogging through construction in Ft. Worth, I could walk to dinner, instead of hunt all around Denton.  We had a peaceful night's sleep in a comfortable bed.  The free breakfast was good and the dining room was bright and clean.  An all-around nice place to stay.More</t>
   </si>
   <si>
+    <t>Kathy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r292500872-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1125,9 @@
     <t>We were lucky to get this room during a storm and late at night. It was the only king room available, was a handicapped accessible room, which was fine. It was quiet, with a very comfortable bed. The only problem was a soiled chair. Thanks to Comfort Inn for a much needed rest, at a reasonable price.More</t>
   </si>
   <si>
+    <t>Stephanie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r285519139-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1146,9 @@
     <t>The Hotel was nice overall, in great shape and kept up. Upon check in, I wanted to change my payment to cash and the front desk clerk told me to do it in the morning. Unsure why, as he wasn't very busy, but I said ok. We got a late check out time as we were checking in a little late. I asked for a 2:00 check out, knowing this was a choice hotel, and members are entitled to a checkout as late at then. I was told the latest I was allowed was 1 pm but I was set to check out at 1. Upon leaving, we passed the morning front desk clerk in the elevator, and she let us know to leave our keys on the desk. I told her that I was going to pay with cash and was told to do it before I check out. She told me that everyone had already been checked out of the system by 11 and that she had no late departures. Not only was I not marked my time, she never made any calls to make sure the rooms were actually vacated. She assured me that she could not change my payment past that point. Now, I not only being a choice member, I am a choice employee so I know how the system works. She could have very easily changed my payment without even checking me back in,...The Hotel was nice overall, in great shape and kept up. Upon check in, I wanted to change my payment to cash and the front desk clerk told me to do it in the morning. Unsure why, as he wasn't very busy, but I said ok. We got a late check out time as we were checking in a little late. I asked for a 2:00 check out, knowing this was a choice hotel, and members are entitled to a checkout as late at then. I was told the latest I was allowed was 1 pm but I was set to check out at 1. Upon leaving, we passed the morning front desk clerk in the elevator, and she let us know to leave our keys on the desk. I told her that I was going to pay with cash and was told to do it before I check out. She told me that everyone had already been checked out of the system by 11 and that she had no late departures. Not only was I not marked my time, she never made any calls to make sure the rooms were actually vacated. She assured me that she could not change my payment past that point. Now, I not only being a choice member, I am a choice employee so I know how the system works. She could have very easily changed my payment without even checking me back in, and if she did check me back in for a second, not a biggie. I did not want to make a payment with that card but I was forced to because the employees at this Hotel do not know how to use the system. We were put in a room where the AC did not cool of but yet, kept rising in temperature by the minute.The gentleman at the desk did come up and move us to a new room, but acknowledged that the AC in that room had been messed up for a while, which caused me to wonder why we were put in there in the first place. Also would be nice if the pool hours were a bit longer. Very unhappy with the overall service here and the decisions that are being made against choice in a choice hotel.More</t>
   </si>
   <si>
+    <t>southerntrucker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r284789348-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1167,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Adam M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r283022793-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1185,9 @@
     <t>The room obviously suffered from water damage as the ceiling had stains and peeling paint.  We also got stuck on the pet floor (even though we don't have a pet), and the various dogs barked for several hours most nights.  We complained to the staff, but they didn't do anything about it.  We thought we would relax one evening in the pool and hot tub.  The pool water was murky, and the hot tub was broken.  Finally, the A/C unit is extremely loud when it kicks on throughout the night.  The breakfast was fine, and there were no other issues.</t>
   </si>
   <si>
+    <t>bkldy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r277971041-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1201,9 @@
   </si>
   <si>
     <t>Checkin was fine, asked about places that deliver pizza and was told it should be in the room and, if not, let them know and they'd get the info for me. Would rather have just gotten it when I asked. Of course, the info was not in the room so we had to do some detective work to find the information. Breakfast was good, hot, nice selection, etc. The lady in charge of breakfast was friendly and helpful. Room was fine, nothing great, nothing horrible. I did like that they had a vent in the bathroom to help with steam during a shower.</t>
+  </si>
+  <si>
+    <t>RnRFun</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r275114763-Comfort_Inn-Denton_Texas.html</t>
@@ -1082,6 +1229,9 @@
 The courtesy of a call back would have gone a long way after 4 messages, but my issue didn't warrant the attempt apparently. Not one, tiny attempt. I was very polite, like my momma taught me. I worked in a hotel when I was younger- my manager then would never have ignored a guest, past or present. It surprises me to see it...I stayed at a great rate for an event in town. Staff appeared overworked but pleasant. Unfortunately a week before I arrived I altered my reservation which went from 1 Double room for three nights to 2 King rooms for two nights arriving one day later, and somewhere in the mix it became 3 King rooms, one of which was still for three nights arriving the day before I was in town [the other two Kings had the correct arrival date.] This caused me to have a no-show charge for one night. By the time this was realized, I was back out of town and tried to call the manager Margaret Heggan 2 weeks later to no avail. I left messages for her to call me with Anna [Ah-na, sorry, not sure how to spell it!] and Marshall, and left 2 voicemails on Margaret's phone. The third and fourth time I tried to call her line, the voicemail box was full and wouldn't accept another message. Checking messages or voicemail is not a priority for Ms. Heggan.The courtesy of a call back would have gone a long way after 4 messages, but my issue didn't warrant the attempt apparently. Not one, tiny attempt. I was very polite, like my momma taught me. I worked in a hotel when I was younger- my manager then would never have ignored a guest, past or present. It surprises me to see it happen, but there's definitely no way 2 voicemails and two hand taken notes were "lost".My caution is this: if you have a problem, do not expect a response. And don't alter your reservation or you may be out of some hard earned cash.More</t>
   </si>
   <si>
+    <t>Denise C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r273394589-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1097,6 +1247,9 @@
     <t>Everything from start to finish was phenomenal.  It's a breath of fresh air to see staff that enjoy being service oriented!  Our room was right across from the swimming pool/exercise room, but we didn't hear anything.  I expected noise, since the hotel was full (no vacancy signs on the doors), but we slept soundly.  A wonderful experience; glad we're booked to stay there again!</t>
   </si>
   <si>
+    <t>Jenniederklein</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r261154616-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1265,9 @@
     <t>We were really impressed by how friendly the staff was during our stay. The "breakfast lady" was one of the hardest working people I've ever seen in a hotel and was constantly checking on us. The room was incredibly clean and the bed was super comfy!</t>
   </si>
   <si>
+    <t>awplus6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r260227862-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1127,6 +1283,9 @@
     <t xml:space="preserve">Stayed here with our 6 children. Very impressed with how clean and comfortable our rooms and beds were. Staff was very nice and helpful. We requested 2 rooms next to each other and they made that happen for us. The breakfast was very good. With lots of choices sausage scrambled eggs waffles toast pastries bagels waffles biscuits gravy cereal coffee and juice. We will stay again. </t>
   </si>
   <si>
+    <t>BeatleLady78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r260114444-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1142,6 +1301,9 @@
     <t>We stayed here for the 35 music festival and I would definitely recommend. Pet friendly rooms on the fourth floor. Very convenient for us. Only problem was that our room had a small leak in the corner but the staff notified us of the issue. We didn't mind at all because we stayed at the fest for the entire day anyway. They came up and fixed it while we were out. Clean room &amp; good location to Denny's, Waffle House, a Mexican restaurant and two convenience stores. No fee for parking and we took our pets to a lot across the street to do their business. Will recommend to friends and family!More</t>
   </si>
   <si>
+    <t>Connie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r252782325-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1322,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Sherrie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r241159727-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1199,6 +1364,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>robertru44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r237905494-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1382,9 @@
     <t>Stayed here Oct 2nd this year as stopover on way to granddaughter's wedding. Nice place off I 35 and 380. Easy to get to. Room was quite nice and comfortable bed. Flat screen TV with good selection of channels. Breakfast was usual fare. Would stay again</t>
   </si>
   <si>
+    <t>Mary Jane S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r235370391-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1409,9 @@
     <t>In the area on business for the weekend, we chose this hotel for its location. Everything was very nice and we would stay again without hesitation. Our bed was just wonderful with several firm and soft pillows and high-quality linens, good bath towels, spacious bathroom counter, good television selections, and a micro-fridge. I especially appreciated the deflector over the A/C unit; so often, the cool/hot air just goes up the face of the window and blows the drapes. Breakfast area is well-attended by a most personable hostess who kept everything clean and stocked. Food was very nice with some truly amazing orange-cranberry muffins. We found the overall decor not really to our taste, but everything was well maintained. My only minor issue was with the area at the base of the toilet which had been overlooked in, my guess, at least several guests' stays. I mentioned it at the desk in the morning and was disappointed it had not been addressed when we returned that evening. Just a little short of our expectations from Comfort Inn (we're in hotels 150+ nights a year for our work). The shower curtain was also due for replacement and/or cleaning.  Staff was personable, professional and welcoming at all times. It was an exceptional value, too. Thank you. (Accepts pets, by the way. Shared the elevator a few times with a dog but had no issues other than not liking them.)More</t>
   </si>
   <si>
+    <t>Rod P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r233990180-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1430,9 @@
     <t>We have stayed at this property several times before. The property has been severely degraded. I reserved a room for my wife expecting the same great experience for her that we came to expect from our previous stays. After she was assigned a room,she found the room door wide open and the room had not been cleaned. Her second room assignment was adequate. She did not partake in breakfast as they were on "weekend hours" and didn't start serving breakfast until 7am. Not very traveler friendly.  Sad to see this property go downhill.More</t>
   </si>
   <si>
+    <t>Trisa D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r233748397-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1274,6 +1451,9 @@
     <t>We were going to be late, around 9pm, to check in after visiting our daughter at UNT. I called to let them know and the woman said she'd document it and they'd see us later.  We arrived at 9:30pm and the man at the desk said our room had been canceled! ! We had to scramble around to find a room late at night in a college town with a football game in town. We will never stay there again.  More</t>
   </si>
   <si>
+    <t>Jerry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r230138925-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1295,6 +1475,9 @@
     <t>This is a very nice and very clean hotel.  The gentleman at the front desk when we called, Marshall, was SUPER!  Not only did he confirm that he had a room available, he also assured us that our coupon rate would be honored.  We arrived a few minutes after Marshall got off duty, but he saw us arrive in the parking lot and came back to assure that we had everything we needed.  Not often do you find that kind of concern and customer service skills.The following morning we received another pleasant surprise at breakfast.  Very clean, very good food, and the lady on duty was terrific!  So upbeat, joyful, and helpful.  She had everyone in the room, if not laughing out loud, at least smiling.What a great experience!More</t>
   </si>
   <si>
+    <t>Al J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r228157797-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1313,6 +1496,9 @@
     <t>Internet access was totally inadequate. I would compare it to the early days of internet telephone access.  I needed to go  to a restaurant on an adjacent property to get decent access and speed. Staff was understanding but apparently unable to do anything about the lack of service. Other than that the place was nice, quite and quite convenient to University Dr and Rt35.  Breakfasts were the usual Comfort Inn food. Ambiance was greatly improved by  a very pleasant Breakfast hostess. Hotel was clean and quiet. I would recommend the hotel with the caveat that it needs to improve the quality of its wireless service.More</t>
   </si>
   <si>
+    <t>Cody W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r222292049-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1526,9 @@
     <t>I came here couple weeks ago the staff is top notch stayed in room 109 which is super Awesome.  But even more AWESOME is Marshall and Melody and staff they are what it is all about I will definitely be coming back to stay again. And Donna is super nice and very smart. Thanks for a delightful stay ladies and guyMore</t>
   </si>
   <si>
+    <t>Shawneemom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r218030745-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1358,6 +1547,9 @@
     <t>We stayed here again after 5 years and it had really changed.  A lot less clean, our room had a gross smell like they were covering up cigarette smoke.  The tv didn't work and once we got it to work, no sound.  The pool was freezing cold.  Don't waste your time staying here.  We didn't stay for breakfast, couldn't get out fast enough!More</t>
   </si>
   <si>
+    <t>NewOrleansSunshine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r213196731-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1385,6 +1577,9 @@
     <t>This stay was wonderful. Our room was so clean and comfy. The beds are great and the breakfast is great. The staff was friendly and knowledgeable. This is a great value for the money! Would highly recommend.More</t>
   </si>
   <si>
+    <t>widerangetraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r211742183-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1409,6 +1604,9 @@
     <t>I was a late check in around 2am. The night guy looked like a hippie had long hair and I though to myself,  "oh no"  but he was absolutely just wonderful!! Very polite and professional. My room was very comfortable and the bed was great. The cleanliness of my room was just spectacular. I could not have been happier with my stay, if I am ever back in Denton and need to stay a night this will definitely be my go to!!More</t>
   </si>
   <si>
+    <t>BrendaG962</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r209555058-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1632,9 @@
   </si>
   <si>
     <t>The stay could not have better.  The bed was so comfortable, the hotel and room very clean and quiet.  The breakfast bar was very good (fresh hot waffles shaped like Texas).  The staff was both friendly and professional.  We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>Sarah L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r209165102-Comfort_Inn-Denton_Texas.html</t>
@@ -1465,6 +1666,9 @@
 The hotel is located by...This was our free night with Choice hotels. We are members of Choice hotels and we took advantage of the promotion ''make two different trips and get one night free'' which was at the beginnig of May. So we stayed one night in Comfort Inn in Ontario (Canada), one night in Missouri and we chose this place for our free night.We are very glad we did for the place was really nice. First, the staff was so welcoming. My name was written on a board ''Welcome to Choice hotel members!''. I had never seen that before. We got free fresh cookies at the reception. Nice touch! There was also free coffee 24 hours a day.  We really felt pampered. I really like the decor of the hotel, it is really beautiful.The room we were given was really beautiful and the bed was sooo comfortable. It could have been a bit larger but it was OK for what we needed. Everything worked great: wifi, fridge, TV, wake-up call, etc. It was clean in general but the chambermaid forgot to clean one shelf in the bathroom (it was really dusty) and there was a little bit dust in the corners of the room. Everything else looked really clean.Unfortunately, we were too tired to try the swimming pool or the fitness center so I can't comment on that. But it looked inviting. Breakfast was good.The hotel is located by the highway but the noise didn't disturb us. We slept very well. It is close to many restaurants. We had dinner in Denny's next door which is so close we almost have the impression it is on the same property.More</t>
   </si>
   <si>
+    <t>IRENE M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r206845809-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1483,6 +1687,9 @@
     <t>first time was great. 4 months later it was dirty, had to ask to have bathroom floor washed. ++ dust around the perimeter of room. staff very helpful. breakfast very appealing . beds very comfortable &amp; rooms quiet. Hot tub only luke warm. Large swimming pool.More</t>
   </si>
   <si>
+    <t>jnj8182012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r205691451-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1507,6 +1714,9 @@
     <t>This hotel was our only choice since the others near by had lower reviews. We were stranded at Dallas due to a storm and our flight was cancelled. We spent the night here and the beds were great, the room was super clean and in the morning when we went down to have breakfast everything was so clean and good. Glad we stopped here.More</t>
   </si>
   <si>
+    <t>Kay W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r195775252-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1534,6 +1744,9 @@
     <t>We have just returned from a 12-day trip and this Inn is the very best we had everywhere!  The beds are like you would have in a very high end hotel.  Savannah at the front desk was awesome!  The Denny's restaurant is next door so once you get settled you don't have to drive elsewhere.More</t>
   </si>
   <si>
+    <t>T S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r192717072-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1561,6 +1774,9 @@
     <t>Absolutely Fabulous place to stay!  Super friendly and honest staff.  I lost my diamond wedding ring, but was not sure where or when I had lost it.  Kim and Ana searched for it and searched for it but couldn't find it.  Later Ana had gone back to the room and was dusting and found it under the phone and called me to let me know they had found it!  They are incredible, super friendly staff.  Savannah was taking care of the front and was also super friendly.  Everything is really clean and comfortable.  Breakfast area really clean and breakfast is served hot and fresh.  We wouldn't stay anywhere else.More</t>
   </si>
   <si>
+    <t>ski5309</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r190626433-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1588,6 +1804,9 @@
     <t>This hotel was the BEST out of 3 we had to stop at on an unpleasant winter road trip. Hotel is very clean, nicely modeled, beds closer to Hilton style in comfort, and staff was very kind and helpful. I would recommend this hotel to anyone who has to stop in Denton, Texas.Every other place we stayed at was HORRIBLE! Thank you Denton Comfort Inn for being the one pleasant stay we had!More</t>
   </si>
   <si>
+    <t>BadgerMbTraveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r190284127-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1612,6 +1831,9 @@
     <t>Stayed just one nite, and found it conveniently just off the interstate. We used a Hotelcoupons.com booklet, which this hotel was part of, and saved about $30. off the regular price. Front desk personnel was friendly and helpful. Rooms were clean, beds were very comfortable and the free internet worked just fine. Choices for restaurants near by was a little limited, but if you drove about 5 miles there were plenty to choose from. As an overnite stop, I would certainly stay again.More</t>
   </si>
   <si>
+    <t>dmdsjd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r187120200-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1627,6 +1849,9 @@
     <t>After getting caught in an ice storm and being stranded in the car on south I35 for 18 hours due to the road closure, we finally made it to Denton, TX at about 9 in the morning.  We were warmly greeted by Kim behind the check-in desk and her husband Billy who headed up the breakfast room.  We were offered breakfast immediately even though it was almost finished and a warm room and very comfortable bed.  We were so happy to have made it there, and these folks were fantastic.  We would stay there again in an instant!  Thank you Kim and Billy.Sue and Dave from Wisconsin</t>
   </si>
   <si>
+    <t>Margaret B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r186384377-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1645,6 +1870,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>2TheBeach4Ever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r184829017-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1660,6 +1888,9 @@
     <t>I would give the hotel five starts except the hot tub was definitely hot tub.  After a long day in the car, we always look for a hotel with a hot tub to soak our weary bones.  Everything else was great.  Nice room and wonderful breakfast buffet.  We had a coupon from one of those travel books so it made it very affordable.  Nice extra is they have coffee and warm cookies at the counter.</t>
   </si>
   <si>
+    <t>ttree23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r181809982-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1678,6 +1909,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>twighlightgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r180494227-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1691,6 +1925,9 @@
   </si>
   <si>
     <t>We have only just got back home after staying there for 5 nights we had 2 rooms one for my husband &amp; myself the 2nd my 3 friends. check inn was quick and the staff were very helpful, we were always asking them for directions &amp; tips on what to see etc .It was handy to have the free breakfast, coffee &amp; fruit was available.This hotel is not in a major tourist area but where ever you stay you have to travel so this is a good hotel option, if in the area would definitely stay again.</t>
+  </si>
+  <si>
+    <t>GREGORY R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r179866831-Comfort_Inn-Denton_Texas.html</t>
@@ -1722,6 +1959,9 @@
 The next evening we come in again, after working all day and the room key will not work once again!  My husband goes down to the front desk to find out why the key won't work tonight.  They said the card we provided was not valid (as merchants when we take...We have been staying at this hotel 3-4 times a year for approximately the last 3 years.  The last time we stayed in the spring of 2013 there were a few issues, but we thought we would give them another chance--- everyone can have a bad week.  WE WILL NOT GIVE THEM ANY MORE CHANCES!!!!Savannah was the only member of the staff that carried herself with any dignity or professionalism.When we checked in we were told there was a problem with Corporate Lodging, we contacted CL, things appeared to be fine.   We get a phone call in a couple of hours requesting another card, no problem, my husband takes another card down, they run it and everything is fine.We come in the next evening after working all day and the room key will not work.  I go down to the front desk, the young man says there is an issue with CL, I explain that Savannah took care of that the evening before.  He rescans the room key.  I asked him why they did not call and discuss the situation, rather than locking the door!!!!!!  CLUELESS The next evening we come in again, after working all day and the room key will not work once again!  My husband goes down to the front desk to find out why the key won't work tonight.  They said the card we provided was not valid (as merchants when we take a credit card it tells us immediately if the card is good).  FINE, we pay with cash!  When we get to our room it has not been cleaned (7:30 pm)!We feel like the least that could have been done is for phone calls to be made rather than locking people out of their room, but apparently that would be too difficult for the management at this establishment.More</t>
   </si>
   <si>
+    <t>Carla S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r176075505-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1740,6 +1980,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Marta M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r175625296-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1755,6 +1998,9 @@
     <t>We went to Denton for a visit to University of North Texas.  The location was great since it was very close to UNT.  The service was good, and the room was a great size.  We had a great experience. With breakfast being included, it was a good plus. The food was good, plenty and several items to choose from.  We definitely would recommend this hotel and location.  We had a great night sleep</t>
   </si>
   <si>
+    <t>sweetpea088</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r165977975-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1773,6 +2019,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>TimMacAlaska</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r165468057-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1788,6 +2037,9 @@
     <t xml:space="preserve">I stayed at this Comfort Inn and it was at the bottom of the many Comfort Inn's I've stayed. Same breakfast as an Econolodge, not sure why they didn't have the full hot breakfast as all the others I've stayed in have. HOT Tub was ice cold and know one knew why. Motel 6 is next door, for half the price. </t>
   </si>
   <si>
+    <t>Krod40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r163910266-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1812,6 +2064,9 @@
     <t>Charged my bank account after giving them another form of payment would not resolve issue  Manager said it was not her problem. Pool over chlorinated hurt my eyes.  Broken things in elevator- cans of barbecue Vienna sausages all over front walk and flower bed.  More</t>
   </si>
   <si>
+    <t>Hooponyou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r159963242-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1830,6 +2085,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Ladonnaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r159853283-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1848,6 +2106,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>off-the-map</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r152217930-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1869,6 +2130,9 @@
     <t>I stay in 40-60 hotels a year on business, and I rarely write reviews unless the hotel was very bad or very good.  This hotel falls in the very good category because it had a lot of the comforts you would find in a more upscale chain.  Let's start with the bed which provided by far one of the most luxurious night sleeps I have had in a long time, and the linens were top notch and comfy.  The bathroom was well appointed with upgraded vanity and sink as well as excellent water pressure in the shower.  The decor of the room was also quite pleasant with soothing paint hues and decent artwork.  Breakfast was what you would expect though they did have hot eggs and sausage to go along with the normal fare.The hotel was mostly empty when I stayed there which meant fast internet which is always a plus on business.  The only downside is it's location which is behind some other hotels off of I-35, but a two minute drive across the highway put you in a shopping mecca with plenty of restaurants.  I will definitely stay here again next time I am in Denton.More</t>
   </si>
   <si>
+    <t>bolderdash123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r145993818-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1887,6 +2151,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Roy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r145375676-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1905,6 +2172,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Christina P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r139373095-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1926,6 +2196,9 @@
     <t>I was In Thackerville, OK for PBR and everything was booked! I had a coupon, and decided to drive the 34 miles to Denton to stay at this hotel. Upon checking In, "Kim" was very nice and friendly. I paid $66.67 cash for the room. The room was not well cleaned. Turned In around 10:00 and couldn't sleep because of the loud stomping upstairs! After about an hour of this going on, I called the front desk to complain. I made several calls over a 15 minute period and no answer! Finally a gentleman answered and I was able to complain about the noise. The next day, after checking out, I checked my account and the hotel had charged $69 plus $66.67, for a total of $135.67 charged to my debt card, after I had already paid cash! I called the hotel and spoke to "Donna" but she was no help at all, just kept talking over me and wouldn't let me get a word In! She never offered me my cash back! I had to wait till Tuesday because of Labor Day to contact the General Manager, "Margret". I spoke to her and explained my situation. I explained, It defeated the whole purpose of me driving the extra miles to stay at her hotel because I was In town to do some gambeling and the money I had on my debt card was my gas money to get back...I was In Thackerville, OK for PBR and everything was booked! I had a coupon, and decided to drive the 34 miles to Denton to stay at this hotel. Upon checking In, "Kim" was very nice and friendly. I paid $66.67 cash for the room. The room was not well cleaned. Turned In around 10:00 and couldn't sleep because of the loud stomping upstairs! After about an hour of this going on, I called the front desk to complain. I made several calls over a 15 minute period and no answer! Finally a gentleman answered and I was able to complain about the noise. The next day, after checking out, I checked my account and the hotel had charged $69 plus $66.67, for a total of $135.67 charged to my debt card, after I had already paid cash! I called the hotel and spoke to "Donna" but she was no help at all, just kept talking over me and wouldn't let me get a word In! She never offered me my cash back! I had to wait till Tuesday because of Labor Day to contact the General Manager, "Margret". I spoke to her and explained my situation. I explained, It defeated the whole purpose of me driving the extra miles to stay at her hotel because I was In town to do some gambeling and the money I had on my debt card was my gas money to get back home. I live 7 hrs away, and my money was not accessible to me because of the hotel charging my card! "Margret: was rude and unprofessional! She even commented-"It's not that much money anyway" and "we didn't force you to stay at our hotel!"  What kind of customer service Is this? I asked for the # of the person above her and she said she couldn't give me that Information! Very unprofessional manager of this property! I will never stay here again! IMore</t>
   </si>
   <si>
+    <t>Pam W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r137629303-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1944,6 +2217,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>mljhnsn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r131406397-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1971,6 +2247,9 @@
     <t>I have stayed at this hotel before and found it to be ok. The bathroom was dirty last time I stayed there. Well nothing has changed. This time the bathroom was in worse shape. I almost wondered if they skipped the room for cleaning that day. There was urine on the seat of the toilet. Hair in the bathtub, and the faucet was sticky with goo. I did contact management and they were quick to do a sub standard job on cleaning it. I know they were very busy and I appreciate the time the front desk took to come and clean it. The floor in the bathroom had not been swept or mopped. There was a shoe print stain that could have been mopped up. I had to wipe down the faucets and tub. The floor in the room had not be vacuumed. The sheets on the bed were clean and the bed was comfortable. This is a newer hotel and it has modern decorations, such as marble counter tops etc..But its sad when that is not maintained and allowed to be filthy. Downstairs in the public bathroom there were no paper towels. It seemed they might have been short staffed.  Given two experiences of dirty bathrooms it makes me worry about staying there again in the future.  And another odd thing I was awoken in the middle of the night by the room vibrating or shaking. It seemed...I have stayed at this hotel before and found it to be ok. The bathroom was dirty last time I stayed there. Well nothing has changed. This time the bathroom was in worse shape. I almost wondered if they skipped the room for cleaning that day. There was urine on the seat of the toilet. Hair in the bathtub, and the faucet was sticky with goo. I did contact management and they were quick to do a sub standard job on cleaning it. I know they were very busy and I appreciate the time the front desk took to come and clean it. The floor in the bathroom had not been swept or mopped. There was a shoe print stain that could have been mopped up. I had to wipe down the faucets and tub. The floor in the room had not be vacuumed. The sheets on the bed were clean and the bed was comfortable. This is a newer hotel and it has modern decorations, such as marble counter tops etc..But its sad when that is not maintained and allowed to be filthy. Downstairs in the public bathroom there were no paper towels. It seemed they might have been short staffed.  Given two experiences of dirty bathrooms it makes me worry about staying there again in the future.  And another odd thing I was awoken in the middle of the night by the room vibrating or shaking. It seemed mechanical but have no idea what it might have been.The kitchen staff as usual was Superb!More</t>
   </si>
   <si>
+    <t>oldiceman11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r126229934-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1998,6 +2277,9 @@
     <t>A great place to stay.Breaky very goood.Rooms very clean.Great staff/ Easy to get to locationMore</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r122021967-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2016,6 +2298,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>Canfamily_9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r120365084-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2037,6 +2322,9 @@
     <t>The hotel was easy to find.  Our family enjoyed the pool &amp; hot tub; the pool was warm &amp; a fair size and the hot tub was nice &amp; hot!  It was all a bit too chlorinated, but ah well, better than being underchlorinated!  The hotel was quiet &amp; the beds were comfortable.  Our room had a fridge &amp; microwave.  The breakfast was a typical Choice hotel breakfast.  The hotel was also close to services we needed.  The main problem was the hotel was not especially clean: shampoo was left in the shower, our room had not been vacuumed...I kept finding things around the room left from the people before.  We let the front desk person know, but of course nothing was done about it but an apology.  Our stay was fine, and the hotel seemed okay on the surface, but when you looked closer, it really was not...I tried not to look too close.  Even the elevator had hand prints all over.So in short, the hotel was fine, but I will try another one next time I am in the area.More</t>
   </si>
   <si>
+    <t>Neskya</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r118179990-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2079,6 +2367,9 @@
     <t>This was a nice hotel.  The staff was very friendly and helpful.  Its a newer hotel in the area.  I was disappointed that it wasn't as clean as i would expect a hotel to be.  There was a bugs leg laying  behind the bathroom door for our entire stay.  The knobs of the side table and office table were either half way hanging off or not on at all.  In one drawer we found the knob to that bed side table.  It seems they didn't pay much attention to quality and details when decorating the facility.  The accent wall paint on the one wall was splatter on the adjacent lighter colored wall, as if no time was taken to tape off that wall as to perform a quality paint job. The beds were comfortable and plush, plenty of pillows.  I felt the kitchen breakfast area was really small and the options were few.  The kitchen staff was SUPERB!!! in taking care of the guest.  I would stay there again it wasn't disgusting, just disappointing.More</t>
   </si>
   <si>
+    <t>Shining_Star73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r116269964-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2097,6 +2388,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>KatherineB44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r83070978-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2115,6 +2409,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>Steeletraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r67639370-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2149,6 +2446,9 @@
   </si>
   <si>
     <t>October 2009</t>
+  </si>
+  <si>
+    <t>MsToni712</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r29296698-Comfort_Inn-Denton_Texas.html</t>
@@ -2680,43 +2980,47 @@
       <c r="A2" t="n">
         <v>57722</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>124923</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -2736,50 +3040,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57722</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>124924</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2799,50 +3107,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57722</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>9044</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2862,50 +3174,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57722</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>22739</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2919,50 +3235,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57722</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>124925</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2980,50 +3300,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57722</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>80377</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3037,50 +3361,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57722</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>10472</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3098,50 +3426,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57722</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>124926</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3155,50 +3487,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57722</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124927</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3218,50 +3554,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57722</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>4831</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3275,50 +3615,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57722</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>124928</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3332,50 +3676,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57722</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>34574</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3389,50 +3737,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57722</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>16655</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3452,50 +3804,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57722</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>124929</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3515,50 +3871,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57722</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>124930</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3572,50 +3932,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57722</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>124931</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3629,50 +3993,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57722</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>124932</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3690,50 +4058,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57722</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>124933</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3747,50 +4119,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57722</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>2109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3808,50 +4184,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57722</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>124934</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3865,50 +4245,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57722</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>3062</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3928,50 +4312,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57722</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>18230</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="J23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3985,50 +4373,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57722</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>124935</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4042,50 +4434,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57722</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4105,50 +4501,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57722</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>124936</v>
+      </c>
+      <c r="C26" t="s">
+        <v>216</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4168,50 +4568,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57722</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>124937</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4225,50 +4629,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57722</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>70544</v>
+      </c>
+      <c r="C28" t="s">
+        <v>230</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="K28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4288,50 +4696,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57722</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>124938</v>
+      </c>
+      <c r="C29" t="s">
+        <v>237</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="J29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4351,50 +4763,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57722</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>113729</v>
+      </c>
+      <c r="C30" t="s">
+        <v>244</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="J30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4414,50 +4830,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57722</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124939</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4477,50 +4897,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57722</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>124940</v>
+      </c>
+      <c r="C32" t="s">
+        <v>258</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4540,32 +4964,36 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57722</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>124941</v>
+      </c>
+      <c r="C33" t="s">
+        <v>265</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="J33" t="s"/>
       <c r="K33" t="s"/>
@@ -4582,51 +5010,52 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57722</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>21941</v>
+      </c>
+      <c r="C34" t="s">
+        <v>268</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4644,50 +5073,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57722</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124942</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="O35" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4707,50 +5140,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57722</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>124943</v>
+      </c>
+      <c r="C36" t="s">
+        <v>281</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="J36" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4768,50 +5205,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57722</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>46773</v>
+      </c>
+      <c r="C37" t="s">
+        <v>289</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4829,50 +5270,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57722</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>124944</v>
+      </c>
+      <c r="C38" t="s">
+        <v>296</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="J38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4892,50 +5337,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57722</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>124945</v>
+      </c>
+      <c r="C39" t="s">
+        <v>303</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4953,50 +5402,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57722</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>124946</v>
+      </c>
+      <c r="C40" t="s">
+        <v>310</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5016,41 +5469,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57722</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>124947</v>
+      </c>
+      <c r="C41" t="s">
+        <v>317</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="K41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
@@ -5069,50 +5526,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57722</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>124948</v>
+      </c>
+      <c r="C42" t="s">
+        <v>324</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="J42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="K42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="L42" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5128,56 +5589,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="X42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="Y42" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57722</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>124949</v>
+      </c>
+      <c r="C43" t="s">
+        <v>334</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="J43" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="O43" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5189,56 +5654,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="X43" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="Y43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57722</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>14578</v>
+      </c>
+      <c r="C44" t="s">
+        <v>343</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="J44" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="K44" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5256,56 +5725,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="X44" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="Y44" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57722</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C45" t="s">
+        <v>351</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="J45" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5321,56 +5794,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="X45" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="Y45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57722</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>733</v>
+      </c>
+      <c r="C46" t="s">
+        <v>359</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="J46" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="K46" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5388,50 +5865,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57722</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>29494</v>
+      </c>
+      <c r="C47" t="s">
+        <v>366</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="J47" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="K47" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="O47" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5445,50 +5926,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57722</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>21074</v>
+      </c>
+      <c r="C48" t="s">
+        <v>373</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="J48" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="K48" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5508,50 +5993,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57722</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>124950</v>
+      </c>
+      <c r="C49" t="s">
+        <v>379</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="J49" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="K49" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5571,50 +6060,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57722</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>124951</v>
+      </c>
+      <c r="C50" t="s">
+        <v>385</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="J50" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="K50" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="L50" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="O50" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5628,50 +6121,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57722</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>3679</v>
+      </c>
+      <c r="C51" t="s">
+        <v>393</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="J51" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5691,50 +6188,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57722</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>124952</v>
+      </c>
+      <c r="C52" t="s">
+        <v>399</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="J52" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="K52" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5754,50 +6255,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57722</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>124953</v>
+      </c>
+      <c r="C53" t="s">
+        <v>405</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="J53" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="K53" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5811,50 +6316,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57722</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>67163</v>
+      </c>
+      <c r="C54" t="s">
+        <v>411</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="J54" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="K54" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5874,50 +6383,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57722</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>36836</v>
+      </c>
+      <c r="C55" t="s">
+        <v>417</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="O55" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5941,50 +6454,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57722</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>124954</v>
+      </c>
+      <c r="C56" t="s">
+        <v>424</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="J56" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="K56" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="L56" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6004,50 +6521,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57722</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124938</v>
+      </c>
+      <c r="C57" t="s">
+        <v>251</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="J57" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="K57" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="L57" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6071,50 +6592,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57722</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>99707</v>
+      </c>
+      <c r="C58" t="s">
+        <v>438</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="J58" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="K58" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="L58" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6130,50 +6655,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57722</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>124955</v>
+      </c>
+      <c r="C59" t="s">
+        <v>444</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="J59" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="K59" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="O59" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6191,56 +6720,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="X59" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="Y59" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57722</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>17249</v>
+      </c>
+      <c r="C60" t="s">
+        <v>453</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="J60" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="K60" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="L60" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="O60" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6252,56 +6785,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="X60" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="Y60" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57722</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>124956</v>
+      </c>
+      <c r="C61" t="s">
+        <v>460</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="J61" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="K61" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6313,56 +6850,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="X61" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="Y61" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57722</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>26565</v>
+      </c>
+      <c r="C62" t="s">
+        <v>467</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="J62" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="K62" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="L62" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="O62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6380,56 +6921,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="X62" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="Y62" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57722</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>2629</v>
+      </c>
+      <c r="C63" t="s">
+        <v>475</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="J63" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="K63" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="L63" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -6447,56 +6992,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="X63" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="Y63" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57722</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>85273</v>
+      </c>
+      <c r="C64" t="s">
+        <v>482</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="J64" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="K64" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="L64" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="O64" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6508,47 +7057,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="X64" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="Y64" t="s">
-        <v>429</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57722</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>124957</v>
+      </c>
+      <c r="C65" t="s">
+        <v>492</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="J65" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="K65" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="L65" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
@@ -6575,56 +7128,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="X65" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="Y65" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57722</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>124958</v>
+      </c>
+      <c r="C66" t="s">
+        <v>499</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="J66" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="K66" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="L66" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6646,56 +7203,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="X66" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="Y66" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57722</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>124959</v>
+      </c>
+      <c r="C67" t="s">
+        <v>509</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="J67" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
       <c r="K67" t="s">
-        <v>448</v>
+        <v>513</v>
       </c>
       <c r="L67" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="O67" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6717,56 +7278,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="X67" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="Y67" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57722</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>124960</v>
+      </c>
+      <c r="C68" t="s">
+        <v>518</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>454</v>
+        <v>520</v>
       </c>
       <c r="J68" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="K68" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="L68" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6788,56 +7353,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="X68" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="Y68" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57722</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>5616</v>
+      </c>
+      <c r="C69" t="s">
+        <v>528</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="J69" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="K69" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="L69" t="s">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6859,56 +7428,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="X69" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="Y69" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57722</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>124961</v>
+      </c>
+      <c r="C70" t="s">
+        <v>536</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="J70" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="K70" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="L70" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6930,56 +7503,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="X70" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="Y70" t="s">
-        <v>474</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57722</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>124962</v>
+      </c>
+      <c r="C71" t="s">
+        <v>543</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="J71" t="s">
-        <v>477</v>
+        <v>546</v>
       </c>
       <c r="K71" t="s">
-        <v>478</v>
+        <v>547</v>
       </c>
       <c r="L71" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="O71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7001,56 +7578,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="X71" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="Y71" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57722</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>25943</v>
+      </c>
+      <c r="C72" t="s">
+        <v>552</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>484</v>
+        <v>554</v>
       </c>
       <c r="J72" t="s">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="K72" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="L72" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7072,56 +7653,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="X72" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="Y72" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57722</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>10744</v>
+      </c>
+      <c r="C73" t="s">
+        <v>562</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="J73" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="K73" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="L73" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="O73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7143,56 +7728,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="X73" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="Y73" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57722</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>124963</v>
+      </c>
+      <c r="C74" t="s">
+        <v>572</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="J74" t="s">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="K74" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="L74" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="O74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7204,56 +7793,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="X74" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="Y74" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>57722</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>124964</v>
+      </c>
+      <c r="C75" t="s">
+        <v>582</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>510</v>
+        <v>583</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="J75" t="s">
-        <v>512</v>
+        <v>585</v>
       </c>
       <c r="K75" t="s">
-        <v>513</v>
+        <v>586</v>
       </c>
       <c r="L75" t="s">
-        <v>514</v>
+        <v>587</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="O75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7275,56 +7868,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>515</v>
+        <v>588</v>
       </c>
       <c r="X75" t="s">
-        <v>516</v>
+        <v>589</v>
       </c>
       <c r="Y75" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>57722</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>124965</v>
+      </c>
+      <c r="C76" t="s">
+        <v>591</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
       <c r="J76" t="s">
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="K76" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
       <c r="L76" t="s">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7348,50 +7945,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>522</v>
+        <v>596</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>57722</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>4839</v>
+      </c>
+      <c r="C77" t="s">
+        <v>597</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>524</v>
+        <v>599</v>
       </c>
       <c r="J77" t="s">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="K77" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
       <c r="L77" t="s">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7405,50 +8006,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>527</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>57722</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>124966</v>
+      </c>
+      <c r="C78" t="s">
+        <v>604</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>529</v>
+        <v>605</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>530</v>
+        <v>606</v>
       </c>
       <c r="J78" t="s">
-        <v>531</v>
+        <v>607</v>
       </c>
       <c r="K78" t="s">
-        <v>532</v>
+        <v>608</v>
       </c>
       <c r="L78" t="s">
-        <v>533</v>
+        <v>609</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="O78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7472,50 +8077,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>533</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>57722</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>124967</v>
+      </c>
+      <c r="C79" t="s">
+        <v>610</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>534</v>
+        <v>611</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>535</v>
+        <v>612</v>
       </c>
       <c r="J79" t="s">
-        <v>536</v>
+        <v>613</v>
       </c>
       <c r="K79" t="s">
-        <v>537</v>
+        <v>614</v>
       </c>
       <c r="L79" t="s">
-        <v>538</v>
+        <v>615</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="O79" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7539,41 +8148,45 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>538</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>57722</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>124968</v>
+      </c>
+      <c r="C80" t="s">
+        <v>617</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>540</v>
+        <v>618</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="J80" t="s">
-        <v>542</v>
+        <v>620</v>
       </c>
       <c r="K80" t="s">
-        <v>543</v>
+        <v>621</v>
       </c>
       <c r="L80" t="s">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
@@ -7602,50 +8215,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>544</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>57722</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>124969</v>
+      </c>
+      <c r="C81" t="s">
+        <v>623</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>546</v>
+        <v>625</v>
       </c>
       <c r="J81" t="s">
-        <v>547</v>
+        <v>626</v>
       </c>
       <c r="K81" t="s">
-        <v>548</v>
+        <v>627</v>
       </c>
       <c r="L81" t="s">
-        <v>549</v>
+        <v>628</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>550</v>
+        <v>629</v>
       </c>
       <c r="O81" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -7669,50 +8286,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>551</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>57722</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>6195</v>
+      </c>
+      <c r="C82" t="s">
+        <v>631</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>553</v>
+        <v>633</v>
       </c>
       <c r="J82" t="s">
-        <v>554</v>
+        <v>634</v>
       </c>
       <c r="K82" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="L82" t="s">
-        <v>556</v>
+        <v>636</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>557</v>
+        <v>637</v>
       </c>
       <c r="O82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7736,50 +8357,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>556</v>
+        <v>636</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>57722</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>60613</v>
+      </c>
+      <c r="C83" t="s">
+        <v>638</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>558</v>
+        <v>639</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
       <c r="J83" t="s">
-        <v>560</v>
+        <v>641</v>
       </c>
       <c r="K83" t="s">
-        <v>561</v>
+        <v>642</v>
       </c>
       <c r="L83" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>557</v>
+        <v>637</v>
       </c>
       <c r="O83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7803,50 +8428,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>57722</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>124970</v>
+      </c>
+      <c r="C84" t="s">
+        <v>644</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="J84" t="s">
-        <v>565</v>
+        <v>647</v>
       </c>
       <c r="K84" t="s">
-        <v>566</v>
+        <v>648</v>
       </c>
       <c r="L84" t="s">
-        <v>567</v>
+        <v>649</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="O84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7870,41 +8499,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>567</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>57722</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>89962</v>
+      </c>
+      <c r="C85" t="s">
+        <v>651</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>569</v>
+        <v>652</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>570</v>
+        <v>653</v>
       </c>
       <c r="J85" t="s">
-        <v>571</v>
+        <v>654</v>
       </c>
       <c r="K85" t="s">
-        <v>572</v>
+        <v>655</v>
       </c>
       <c r="L85" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
@@ -7933,41 +8566,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>57722</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>124971</v>
+      </c>
+      <c r="C86" t="s">
+        <v>657</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>574</v>
+        <v>658</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>575</v>
+        <v>659</v>
       </c>
       <c r="J86" t="s">
-        <v>576</v>
+        <v>660</v>
       </c>
       <c r="K86" t="s">
-        <v>577</v>
+        <v>661</v>
       </c>
       <c r="L86" t="s">
-        <v>578</v>
+        <v>662</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
@@ -7994,56 +8631,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="X86" t="s">
-        <v>580</v>
+        <v>664</v>
       </c>
       <c r="Y86" t="s">
-        <v>581</v>
+        <v>665</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>57722</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>124972</v>
+      </c>
+      <c r="C87" t="s">
+        <v>666</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>582</v>
+        <v>667</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>583</v>
+        <v>668</v>
       </c>
       <c r="J87" t="s">
-        <v>584</v>
+        <v>669</v>
       </c>
       <c r="K87" t="s">
-        <v>585</v>
+        <v>670</v>
       </c>
       <c r="L87" t="s">
-        <v>586</v>
+        <v>671</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>587</v>
+        <v>672</v>
       </c>
       <c r="O87" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P87" t="n">
         <v>2</v>
@@ -8067,50 +8708,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>586</v>
+        <v>671</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>57722</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>124973</v>
+      </c>
+      <c r="C88" t="s">
+        <v>673</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>588</v>
+        <v>674</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>589</v>
+        <v>675</v>
       </c>
       <c r="J88" t="s">
-        <v>590</v>
+        <v>676</v>
       </c>
       <c r="K88" t="s">
-        <v>591</v>
+        <v>677</v>
       </c>
       <c r="L88" t="s">
-        <v>592</v>
+        <v>678</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>593</v>
+        <v>679</v>
       </c>
       <c r="O88" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8134,50 +8779,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>592</v>
+        <v>678</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>57722</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>124974</v>
+      </c>
+      <c r="C89" t="s">
+        <v>680</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>594</v>
+        <v>681</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>595</v>
+        <v>682</v>
       </c>
       <c r="J89" t="s">
-        <v>596</v>
+        <v>683</v>
       </c>
       <c r="K89" t="s">
-        <v>597</v>
+        <v>684</v>
       </c>
       <c r="L89" t="s">
-        <v>598</v>
+        <v>685</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>599</v>
+        <v>686</v>
       </c>
       <c r="O89" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8201,50 +8850,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>600</v>
+        <v>687</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>57722</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>124975</v>
+      </c>
+      <c r="C90" t="s">
+        <v>688</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>601</v>
+        <v>689</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>602</v>
+        <v>690</v>
       </c>
       <c r="J90" t="s">
-        <v>603</v>
+        <v>691</v>
       </c>
       <c r="K90" t="s">
-        <v>604</v>
+        <v>692</v>
       </c>
       <c r="L90" t="s">
-        <v>605</v>
+        <v>693</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>606</v>
+        <v>694</v>
       </c>
       <c r="O90" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8268,50 +8921,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>605</v>
+        <v>693</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>57722</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>28971</v>
+      </c>
+      <c r="C91" t="s">
+        <v>695</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>607</v>
+        <v>696</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>608</v>
+        <v>697</v>
       </c>
       <c r="J91" t="s">
-        <v>609</v>
+        <v>698</v>
       </c>
       <c r="K91" t="s">
-        <v>610</v>
+        <v>699</v>
       </c>
       <c r="L91" t="s">
-        <v>611</v>
+        <v>700</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>612</v>
+        <v>701</v>
       </c>
       <c r="O91" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8335,50 +8992,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>611</v>
+        <v>700</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>57722</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>47452</v>
+      </c>
+      <c r="C92" t="s">
+        <v>702</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>614</v>
+        <v>704</v>
       </c>
       <c r="J92" t="s">
-        <v>615</v>
+        <v>705</v>
       </c>
       <c r="K92" t="s">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="L92" t="s">
-        <v>617</v>
+        <v>707</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>618</v>
+        <v>708</v>
       </c>
       <c r="O92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -8402,50 +9063,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>619</v>
+        <v>709</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>57722</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>20503</v>
+      </c>
+      <c r="C93" t="s">
+        <v>710</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>620</v>
+        <v>711</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>621</v>
+        <v>712</v>
       </c>
       <c r="J93" t="s">
-        <v>622</v>
+        <v>713</v>
       </c>
       <c r="K93" t="s">
-        <v>623</v>
+        <v>714</v>
       </c>
       <c r="L93" t="s">
-        <v>624</v>
+        <v>715</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>625</v>
+        <v>716</v>
       </c>
       <c r="O93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8469,50 +9134,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>624</v>
+        <v>715</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>57722</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>124976</v>
+      </c>
+      <c r="C94" t="s">
+        <v>717</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>626</v>
+        <v>718</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>627</v>
+        <v>719</v>
       </c>
       <c r="J94" t="s">
-        <v>628</v>
+        <v>720</v>
       </c>
       <c r="K94" t="s">
-        <v>629</v>
+        <v>721</v>
       </c>
       <c r="L94" t="s">
-        <v>630</v>
+        <v>722</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>631</v>
+        <v>723</v>
       </c>
       <c r="O94" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8534,56 +9203,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>632</v>
+        <v>724</v>
       </c>
       <c r="X94" t="s">
-        <v>633</v>
+        <v>725</v>
       </c>
       <c r="Y94" t="s">
-        <v>634</v>
+        <v>726</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>57722</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>124977</v>
+      </c>
+      <c r="C95" t="s">
+        <v>727</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>635</v>
+        <v>728</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>636</v>
+        <v>729</v>
       </c>
       <c r="J95" t="s">
-        <v>637</v>
+        <v>730</v>
       </c>
       <c r="K95" t="s">
-        <v>638</v>
+        <v>731</v>
       </c>
       <c r="L95" t="s">
-        <v>639</v>
+        <v>732</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>640</v>
+        <v>733</v>
       </c>
       <c r="O95" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8605,56 +9278,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>641</v>
+        <v>734</v>
       </c>
       <c r="X95" t="s">
-        <v>642</v>
+        <v>735</v>
       </c>
       <c r="Y95" t="s">
-        <v>643</v>
+        <v>736</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>57722</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>304</v>
+      </c>
+      <c r="C96" t="s">
+        <v>737</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>644</v>
+        <v>738</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>645</v>
+        <v>739</v>
       </c>
       <c r="J96" t="s">
-        <v>646</v>
+        <v>740</v>
       </c>
       <c r="K96" t="s">
-        <v>647</v>
+        <v>741</v>
       </c>
       <c r="L96" t="s">
-        <v>648</v>
+        <v>742</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>649</v>
+        <v>743</v>
       </c>
       <c r="O96" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8678,50 +9355,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>648</v>
+        <v>742</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>57722</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>124978</v>
+      </c>
+      <c r="C97" t="s">
+        <v>744</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>650</v>
+        <v>745</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>651</v>
+        <v>746</v>
       </c>
       <c r="J97" t="s">
-        <v>652</v>
+        <v>747</v>
       </c>
       <c r="K97" t="s">
-        <v>653</v>
+        <v>748</v>
       </c>
       <c r="L97" t="s">
-        <v>654</v>
+        <v>749</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>655</v>
+        <v>750</v>
       </c>
       <c r="O97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -8745,50 +9426,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>656</v>
+        <v>751</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>57722</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>19253</v>
+      </c>
+      <c r="C98" t="s">
+        <v>752</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>657</v>
+        <v>753</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>658</v>
+        <v>754</v>
       </c>
       <c r="J98" t="s">
-        <v>659</v>
+        <v>755</v>
       </c>
       <c r="K98" t="s">
-        <v>660</v>
+        <v>756</v>
       </c>
       <c r="L98" t="s">
-        <v>661</v>
+        <v>757</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>662</v>
+        <v>758</v>
       </c>
       <c r="O98" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8810,50 +9495,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>663</v>
+        <v>759</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>57722</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>124975</v>
+      </c>
+      <c r="C99" t="s">
+        <v>717</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>664</v>
+        <v>760</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>665</v>
+        <v>761</v>
       </c>
       <c r="J99" t="s">
-        <v>666</v>
+        <v>762</v>
       </c>
       <c r="K99" t="s">
-        <v>667</v>
+        <v>763</v>
       </c>
       <c r="L99" t="s">
-        <v>668</v>
+        <v>764</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>669</v>
+        <v>765</v>
       </c>
       <c r="O99" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8873,50 +9562,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>670</v>
+        <v>766</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>57722</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>124979</v>
+      </c>
+      <c r="C100" t="s">
+        <v>767</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>671</v>
+        <v>768</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>672</v>
+        <v>769</v>
       </c>
       <c r="J100" t="s">
-        <v>673</v>
+        <v>770</v>
       </c>
       <c r="K100" t="s">
-        <v>674</v>
+        <v>771</v>
       </c>
       <c r="L100" t="s">
-        <v>675</v>
+        <v>772</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>676</v>
+        <v>773</v>
       </c>
       <c r="O100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -8936,50 +9629,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>675</v>
+        <v>772</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>57722</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>124980</v>
+      </c>
+      <c r="C101" t="s">
+        <v>774</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>677</v>
+        <v>775</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>678</v>
+        <v>776</v>
       </c>
       <c r="J101" t="s">
-        <v>679</v>
+        <v>777</v>
       </c>
       <c r="K101" t="s">
-        <v>680</v>
+        <v>778</v>
       </c>
       <c r="L101" t="s">
-        <v>681</v>
+        <v>779</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>682</v>
+        <v>780</v>
       </c>
       <c r="O101" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9003,50 +9700,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>681</v>
+        <v>779</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>57722</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>124981</v>
+      </c>
+      <c r="C102" t="s">
+        <v>781</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>683</v>
+        <v>782</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>684</v>
+        <v>783</v>
       </c>
       <c r="J102" t="s">
-        <v>685</v>
+        <v>784</v>
       </c>
       <c r="K102" t="s">
-        <v>686</v>
+        <v>785</v>
       </c>
       <c r="L102" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="O102" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9070,50 +9771,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>687</v>
+        <v>786</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>57722</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>124956</v>
+      </c>
+      <c r="C103" t="s">
+        <v>492</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="J103" t="s">
-        <v>691</v>
+        <v>790</v>
       </c>
       <c r="K103" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
       <c r="L103" t="s">
-        <v>693</v>
+        <v>792</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>694</v>
+        <v>793</v>
       </c>
       <c r="O103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -9127,50 +9832,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>693</v>
+        <v>792</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>57722</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>44035</v>
+      </c>
+      <c r="C104" t="s">
+        <v>794</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>695</v>
+        <v>795</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>696</v>
+        <v>796</v>
       </c>
       <c r="J104" t="s">
-        <v>697</v>
+        <v>797</v>
       </c>
       <c r="K104" t="s">
-        <v>698</v>
+        <v>798</v>
       </c>
       <c r="L104" t="s">
-        <v>699</v>
+        <v>799</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9192,13 +9901,13 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>701</v>
+        <v>801</v>
       </c>
       <c r="X104" t="s">
-        <v>702</v>
+        <v>802</v>
       </c>
       <c r="Y104" t="s">
-        <v>703</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_85.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_85.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="708">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>ltbd1</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r572157731-Comfort_Inn-Denton_Texas.html</t>
@@ -183,9 +180,6 @@
     <t>I am a member of Choice Inn’s club.  This has to be the WORST Comfort Inn we have ever stayed at.  Makes one wonder, since they have gotten so much bigger, if they have lost control over quality. We checked in and all was fine. Went up to the room, room was unlocked.  Went in caution and all seemed fine, called down and they said the maid just probably left in ajar.  Unpacked and went out to dinner. Came back and tried to get back into the room and found all you had to do was just push on the door to the left and it would open.  Looked closely and the door strike was not centered.  Called down to the front desk, they will check and see if any other room available.  They called back in fifteen minutes later and said they had another room up two floors and would meet us there.  No offer to help up pack and move. So we stayed and just locked the room with the lock on the inside.  Went down to breakfast in the morning, at normal time. Since it was the weekend, a later start time at this location.  Not even coffee was made and several others waiting.  Told the lady at the from desk to have the manager call me. Never Did. Left and went on down the road and stopped at What a burger.More</t>
   </si>
   <si>
-    <t>dhare12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r571554317-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Betty H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r540072078-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
   </si>
   <si>
     <t>They were remodeling, so I didn't expect perfection. The room was so-so, but the bed had a 1/2 coverlet that had little black hairs all over it! It was disgusting. The sink stopper didn't work. The toilet wobbled. Half of the outlets didn't work. We lost food because the refrigerator didn't stay cold. On the last day, after realizing the electrical outlet problem, I tried another outlet and then it got cold. I injured myself in the fitness center because a machine was broken. They offered me 10% off the price....woopee! The receptionist was rarely at the front because of smoke breaks. They ran out of food in the breakfast.More</t>
-  </si>
-  <si>
-    <t>Ashley R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r533604259-Comfort_Inn-Denton_Texas.html</t>
@@ -255,9 +243,6 @@
   <si>
     <t>Our family all stayed here in October 2017. We are all from different parts of the country and were in town to visit family here. I’ve stayed at other Choice Hotels with no problem. However, this was not the case with this particular hotel. Each of us had some kind of problem with our room. We arrived very late on Friday night and were hungry. We were just going to grab something out of the vending machine but the lady working the front desk said the vending machine was out of order and would be repaired in the morning. It still wasn’t fixed on Sunday. In our room, our entry way light did not work upon arrival. We also discovered our carpet was soaked from the leaking air conditioner. It was leaking so bad you could actually hear it dripping into the soaked carpet. The next night, the lights and the fan burned out in the bathroom. We found some screws on the floor in the room. We also discovered trash under one of the beds to include a Kleenex and a bag of sunflower seeds. The walls are scuffed up and in need of some serious attention. The door to our room did not shut on its own. It had to be pushed shut and made sure the door clicked to ensure it was shut. The lack of appropriate housekeeping and cleaning is a real issue here.
 When my...Our family all stayed here in October 2017. We are all from different parts of the country and were in town to visit family here. I’ve stayed at other Choice Hotels with no problem. However, this was not the case with this particular hotel. Each of us had some kind of problem with our room. We arrived very late on Friday night and were hungry. We were just going to grab something out of the vending machine but the lady working the front desk said the vending machine was out of order and would be repaired in the morning. It still wasn’t fixed on Sunday. In our room, our entry way light did not work upon arrival. We also discovered our carpet was soaked from the leaking air conditioner. It was leaking so bad you could actually hear it dripping into the soaked carpet. The next night, the lights and the fan burned out in the bathroom. We found some screws on the floor in the room. We also discovered trash under one of the beds to include a Kleenex and a bag of sunflower seeds. The walls are scuffed up and in need of some serious attention. The door to our room did not shut on its own. It had to be pushed shut and made sure the door clicked to ensure it was shut. The lack of appropriate housekeeping and cleaning is a real issue here.When my sisters arrived, their air conditioner was not working in their room. They called for maintenance and were told that they probably froze up the A/C but knew that wasn’t possible because they had just arrived. They also had a stain on their bedding and a stain on the floor. It looks like blood stains.In my aunt’s room, an open condom was discovered in one of the drawers. My uncle reported this to the front desk on Saturday morning and was assured housekeeping would take care of it. On Sunday morning, my aunt discovered it. Clearly it had not been taken care of.The refrigerator did not work in my mom’s room.The front desk was friendly. When we checked out and began to tell them our issues, she said the general manager had already told her to comp our first night, which we greatly appreciated. We clearly weren’t the only ones with problems as the lady working the front desk had a list of complaints/maintenance issues from other guests. We definitely won’t be back. More</t>
-  </si>
-  <si>
-    <t>Txgirl9226</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r531699745-Comfort_Inn-Denton_Texas.html</t>
@@ -286,9 +271,6 @@
 4) after we killed said roach, the next day, after the cleaning staff "cleaned" my room, I found severed leg of roach still on floor. Along with my hair. They didn't clean at all. I'm fine with them not changing sheets while I'm there but I do...I'm the kind of person that likes to leave positive reviews but I just can't do it with this hotel. In fact I'm being generous with the 2 stars. It was bad from the second I walked in the door.  Let me count the ways...1) they were being remodeled and didn't bother to say anything. The whole lobby was a construction zone. I don't go on vacation to be in this atmosphere. You had to walk on planks to get across lobby. (new flooring) even though I appreciate the update, I don't want to be there while it's happening. They should have mentioned it. 2) the builder apparently didn't believe in insulation. Normally when I go to a hotel, as soon as I close my door, i'm in a sound bubble. I don't hear anything outside my room. In this hotel, I could hear my neighbor's TV every morning at 6:00 am! You could hear everyone talking in the hallway and every footstep upstairs. I don't blame the hotel guests as nobody was being rude or overly noisy. It was just the hotel. 3) I found a giant roach in the bathroom. 4) after we killed said roach, the next day, after the cleaning staff "cleaned" my room, I found severed leg of roach still on floor. Along with my hair. They didn't clean at all. I'm fine with them not changing sheets while I'm there but I do expect them to clean. If I wanted a dirty bathroom, I could stay at home. Oh not once was my toilet paper roll on the holder. The cleaning crew always left it on the counter. 5) tv remote held together by tape6) breakfast on day one was Green eggs and sausage. Not my choice. However the Texas shaped waffle was excellent7) I complained to front desk about noise and construction..."Sorry I'm not responsible, there is nothing I can do". 8) the pool and hot tub looked promising in the pictures but hot tub wouldn't come on and once we saw the water, my husband refused to get in. He said considering everything that was going on in the hotel, he didn't want to take the chance with the pool water. 9) elevator was dirty and missing buttons and railsI'm sure I could come up with #10 but I think I've said enough. Stay at La Quinta nextdoor instead.More</t>
   </si>
   <si>
-    <t>Vicky R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r514473644-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -307,9 +289,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>Jim F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r509480902-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -322,9 +301,6 @@
     <t>I'm not sure this hotel even rated 3 stars. The lobby was dirty. The elevator was filthy. The hallways had fork and knives on the floor. The door squeaked, the toilet ran all night, the AC sounded like a train, and to top it off the next room conversation at 3am could be clearly heard even though the were just talking in a normal voice. We stay in many Choice Hotels, but not this one again!</t>
   </si>
   <si>
-    <t>qbethb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r507256670-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -343,9 +319,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>Cooperton</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r504184670-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -364,9 +337,6 @@
     <t>I was traveling through to take my kids to see their grandparents in south Texas.  After over 12 hours on the road, we were happy to see the hotel.  I was traveling with a 10 and a 7 year old and the first thing we had to do was to try out the pool.  After spending all day in the truck, the kids were ready to expend some energy.  The pool was open and the water temperature was not too cold.  They got to splash around and then we dropped into bed.  The beds were comfortable and we had a good night's sleep and were ready to get back on the road in the morning. The breakfast was typical of this type of hotel and was filling.  If you are traveling during the week, make sure you are up and down to breakfast before 9 am because they were quick to put away breakfast as 9 approached.  There was a very happy and friendly breakfast attendant that morning.  After comparing this to other nearby hotels, I feel the value for the price was excellent.  It is not fancy but it served our needs very well.  BTW, it is pet friendly, but they only allow pets on certain floors so my daughter did not have any problems even though she has cat allergies.More</t>
   </si>
   <si>
-    <t>Brad S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r495361215-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -385,9 +355,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Andy_L_R_12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r492702984-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -404,9 +371,6 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Tiffany D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r489462176-Comfort_Inn-Denton_Texas.html</t>
@@ -423,7 +387,7 @@
   <si>
     <t>My husband, 18-year-old stepson, 3-year-old daughter, and I stayed here on a Sunday and Monday night during Memorial Day weekend. They allowed us to check in 2 hours early without an extra fee, which was nice. We paid $74/night, plus tax, on their website (they took $1 off a night for signing up to be Choice members). The lady at the front desk who checked us in was friendly. She noticed I was having some trouble pushing my loaded cart from my van, so she kindly assisted me. She also gave my daughter a banana (she asked if she could first), so that was nice. In fact, all the ladies I saw working the front desk where always very polite and helpful.
 We had a 2 Queen room. The room was nice and cool. It had a thermostat on the wall to adjust as needed. The beds were wonderful. Not too hard and not too soft. The sheets and duvet cover were sooooo comfortable, as were the pillows. They provide you with 4 pillows per bed, 2 firm ones and 2 fluffy ones, as well as an extra pillow in the closet. 
-The bathroom was nice and large enough for our needs - includes a hair dryer, some nice shea butter soap, citrus mint shampoo &amp; conditioner, 4 towels, hand towels, and wash cloths (which is nice, considering many places we have gone to don't provide enough towels). There was...My husband, 18-year-old stepson, 3-year-old daughter, and I stayed here on a Sunday and Monday night during Memorial Day weekend. They allowed us to check in 2 hours early without an extra fee, which was nice. We paid $74/night, plus tax, on their website (they took $1 off a night for signing up to be Choice members). The lady at the front desk who checked us in was friendly. She noticed I was having some trouble pushing my loaded cart from my van, so she kindly assisted me. She also gave my daughter a banana (she asked if she could first), so that was nice. In fact, all the ladies I saw working the front desk where always very polite and helpful.We had a 2 Queen room. The room was nice and cool. It had a thermostat on the wall to adjust as needed. The beds were wonderful. Not too hard and not too soft. The sheets and duvet cover were sooooo comfortable, as were the pillows. They provide you with 4 pillows per bed, 2 firm ones and 2 fluffy ones, as well as an extra pillow in the closet. The bathroom was nice and large enough for our needs - includes a hair dryer, some nice shea butter soap, citrus mint shampoo &amp; conditioner, 4 towels, hand towels, and wash cloths (which is nice, considering many places we have gone to don't provide enough towels). There was a little sign that stated if you forgot any toiletries to let them know and they would provide. There was plenty of bathroom counter space, as well as 2 full shelves below that. There's a closet (with a double door) to hang your clothes, with some hangers included, and an iron and ironing board.There's a flat screen TV on top of a 3 drawer dresser.There's a desk with a drawer.The nightstand in between the 2 beds as a drawer and then a shelf beneath that.There's a rolling chair at the desk, a chair next to that, and an armchair and ottoman. There was a lamp behind the armchair that had electrical tape all around the part where you can turn it off and on, so I just left it alone, assuming it didn't work. There is a fridge, but no freezer like many hotels have built in to the mini fridge, so that was kind of a bummer as my husband had bought popsicles I had to let go to waste. There's a microwave, an ice bucket, a couple small plastic cups, a mini coffee maker, and some starter coffee, cream, and sugar. There seemed to be plenty of electrical outlets. I liked how, on the nightstand, there was a Cubie Mini power/charging station with 2 power outlets &amp; 2 USB charging ports. There were...MoreShow less</t>
+The bathroom was nice and large enough for our needs - includes a hair dryer, some nice shea butter soap, citrus mint shampoo &amp; conditioner, 4 towels, hand towels, and wash cloths (which is nice, considering many places we have gone to don't provide enough towels). There was...My husband, 18-year-old stepson, 3-year-old daughter, and I stayed here on a Sunday and Monday night during Memorial Day weekend. They allowed us to check in 2 hours early without an extra fee, which was nice. We paid $74/night, plus tax, on their website (they took $1 off a night for signing up to be Choice members). The lady at the front desk who checked us in was friendly. She noticed I was having some trouble pushing my loaded cart from my van, so she kindly assisted me. She also gave my daughter a banana (she asked if she could first), so that was nice. In fact, all the ladies I saw working the front desk where always very polite and helpful.We had a 2 Queen room. The room was nice and cool. It had a thermostat on the wall to adjust as needed. The beds were wonderful. Not too hard and not too soft. The sheets and duvet cover were sooooo comfortable, as were the pillows. They provide you with 4 pillows per bed, 2 firm ones and 2 fluffy ones, as well as an extra pillow in the closet. The bathroom was nice and large enough for our needs - includes a hair dryer, some nice shea butter soap, citrus mint shampoo &amp; conditioner, 4 towels, hand towels, and wash cloths (which is nice, considering many places we have gone to don't provide enough towels). There was a little sign that stated if you forgot any toiletries to let them know and they would provide. There was plenty of bathroom counter space, as well as 2 full shelves below that. There's a closet (with a double door) to hang your clothes, with some hangers included, and an iron and ironing board.There's a flat screen TV on top of a 3 drawer dresser.There's a desk with a drawer.The nightstand in between the 2 beds as a drawer and then a shelf beneath that.There's a rolling chair at the desk, a chair next to that, and an armchair and ottoman. There was a lamp behind the armchair that had electrical tape all around the part where you can turn it off and on, so I just left it alone, assuming it didn't work. There is a fridge, but no freezer like many hotels have built in to the mini fridge, so that was kind of a bummer as my husband had bought popsicles I had to let go to waste. There's a microwave, an ice bucket, a couple small plastic cups, a mini coffee maker, and some starter coffee, cream, and sugar. There seemed to be plenty of electrical outlets. I liked how, on the nightstand, there was a Cubie Mini power/charging station with 2 power outlets &amp; 2 USB charging ports. There were several other places behind the nightstand, next to the bed, and behind the desk to plug things in. That's always a bonus. The wifi worked well every time we used it; however, for some reason my Android phone had problems logging in after I'd left the hotel and come back the first day. It worked just fine the first time I got there, but when I left and came back it never could log in again. I asked the front desk and they showed me a number I could call on the error screen I was getting, but I just used another phone (an iphone), and the internet worked just fine on it. As for the lobby, we liked how, at any time, you can get coffee (regular or decaf) or hot water in there, as well as creamer and sugar. They also have a dispenser full of lemon water. It was a nice touch. Breakfast consisted of cereal, milk, muffins, cinnamon rolls, Texas-shaped waffles you make yourself, bread, scrambled eggs, sausage, hard boiled eggs, yogurt, Greek yogurt, bananas, cute little red apples, oranges, apple juice, orange juice (the good kind, not Tang), water, and coffee (I may be missing something). The breakfast area was clean and tidy. The breakfast room attendant was very friendly and helpful, telling everyone good morning and asking if they needed help with anything. (By the way, I can't remember what time the breakfast room opens, but it closes at 9 AM weekdays and 10 AM Saturday and Sunday.)When I went back to my room (on the fourth floor) after breakfast, my key to get in didn't work, so I had to go back downstairs to have them make me another one. (I hate when that happens.) It's especially a hassle because the elevator seems to be very slow. I tried to just take the stairs every time instead when I didn't have my toddler in tow. The room where the indoor pool and hot tub are is very warm, which is good, because it keeps the water warm, but not good if you don't plan on getting in to swim (you'll definitely be hot). The water was OK. Could have stood to be a bit warmer, but it wasn't uncomfortably cool (unless you get in the hot tub first). We went 30 minutes prior to closing at 10 PM and there weren't any towels available, so we had to get some at the front desk. The next day we went around 5 PM and there still weren't any towels, but this time we had come prepared. Also, the first night we weren't able to get inside the pool area using our hotel card like we should have been able to. The reader just kept flashing red. Someone was already inside and they let us in, and then the people who showed up after us we had to let in, as well. I guess because it was 30 minutes until closing? The next day, when we went at 5, it worked just fine. Also..this is a dog friendly place, so be aware of that. We didn't bring our dogs, but someone had brought theirs down the hall from us and for about an hour while they were away he/she barked the whole time, which was annoying. And on at least two occasions I heard from the room across from us when the patron entered her room her dog ran out every time and I could hear her yelling for it and apologizing as it growled and barked at someone walking down the hall. Other than that, I never smelled dog urine inside and never saw dog poop outside, so that was good.Overall, it was a pleasant stay with pleasant staff, a nice room, comfortable beds, and a good breakfast. We would definitely stay here again. MoreShow less</t>
   </si>
   <si>
     <t>May 2017</t>
@@ -431,10 +395,7 @@
   <si>
     <t>My husband, 18-year-old stepson, 3-year-old daughter, and I stayed here on a Sunday and Monday night during Memorial Day weekend. They allowed us to check in 2 hours early without an extra fee, which was nice. We paid $74/night, plus tax, on their website (they took $1 off a night for signing up to be Choice members). The lady at the front desk who checked us in was friendly. She noticed I was having some trouble pushing my loaded cart from my van, so she kindly assisted me. She also gave my daughter a banana (she asked if she could first), so that was nice. In fact, all the ladies I saw working the front desk where always very polite and helpful.
 We had a 2 Queen room. The room was nice and cool. It had a thermostat on the wall to adjust as needed. The beds were wonderful. Not too hard and not too soft. The sheets and duvet cover were sooooo comfortable, as were the pillows. They provide you with 4 pillows per bed, 2 firm ones and 2 fluffy ones, as well as an extra pillow in the closet. 
-The bathroom was nice and large enough for our needs - includes a hair dryer, some nice shea butter soap, citrus mint shampoo &amp; conditioner, 4 towels, hand towels, and wash cloths (which is nice, considering many places we have gone to don't provide enough towels). There was...My husband, 18-year-old stepson, 3-year-old daughter, and I stayed here on a Sunday and Monday night during Memorial Day weekend. They allowed us to check in 2 hours early without an extra fee, which was nice. We paid $74/night, plus tax, on their website (they took $1 off a night for signing up to be Choice members). The lady at the front desk who checked us in was friendly. She noticed I was having some trouble pushing my loaded cart from my van, so she kindly assisted me. She also gave my daughter a banana (she asked if she could first), so that was nice. In fact, all the ladies I saw working the front desk where always very polite and helpful.We had a 2 Queen room. The room was nice and cool. It had a thermostat on the wall to adjust as needed. The beds were wonderful. Not too hard and not too soft. The sheets and duvet cover were sooooo comfortable, as were the pillows. They provide you with 4 pillows per bed, 2 firm ones and 2 fluffy ones, as well as an extra pillow in the closet. The bathroom was nice and large enough for our needs - includes a hair dryer, some nice shea butter soap, citrus mint shampoo &amp; conditioner, 4 towels, hand towels, and wash cloths (which is nice, considering many places we have gone to don't provide enough towels). There was a little sign that stated if you forgot any toiletries to let them know and they would provide. There was plenty of bathroom counter space, as well as 2 full shelves below that. There's a closet (with a double door) to hang your clothes, with some hangers included, and an iron and ironing board.There's a flat screen TV on top of a 3 drawer dresser.There's a desk with a drawer.The nightstand in between the 2 beds as a drawer and then a shelf beneath that.There's a rolling chair at the desk, a chair next to that, and an armchair and ottoman. There was a lamp behind the armchair that had electrical tape all around the part where you can turn it off and on, so I just left it alone, assuming it didn't work. There is a fridge, but no freezer like many hotels have built in to the mini fridge, so that was kind of a bummer as my husband had bought popsicles I had to let go to waste. There's a microwave, an ice bucket, a couple small plastic cups, a mini coffee maker, and some starter coffee, cream, and sugar. There seemed to be plenty of electrical outlets. I liked how, on the nightstand, there was a Cubie Mini power/charging station with 2 power outlets &amp; 2 USB charging ports. There were...More</t>
-  </si>
-  <si>
-    <t>MrsMarx</t>
+The bathroom was nice and large enough for our needs - includes a hair dryer, some nice shea butter soap, citrus mint shampoo &amp; conditioner, 4 towels, hand towels, and wash cloths (which is nice, considering many places we have gone to don't provide enough towels). There was...My husband, 18-year-old stepson, 3-year-old daughter, and I stayed here on a Sunday and Monday night during Memorial Day weekend. They allowed us to check in 2 hours early without an extra fee, which was nice. We paid $74/night, plus tax, on their website (they took $1 off a night for signing up to be Choice members). The lady at the front desk who checked us in was friendly. She noticed I was having some trouble pushing my loaded cart from my van, so she kindly assisted me. She also gave my daughter a banana (she asked if she could first), so that was nice. In fact, all the ladies I saw working the front desk where always very polite and helpful.We had a 2 Queen room. The room was nice and cool. It had a thermostat on the wall to adjust as needed. The beds were wonderful. Not too hard and not too soft. The sheets and duvet cover were sooooo comfortable, as were the pillows. They provide you with 4 pillows per bed, 2 firm ones and 2 fluffy ones, as well as an extra pillow in the closet. The bathroom was nice and large enough for our needs - includes a hair dryer, some nice shea butter soap, citrus mint shampoo &amp; conditioner, 4 towels, hand towels, and wash cloths (which is nice, considering many places we have gone to don't provide enough towels). There was a little sign that stated if you forgot any toiletries to let them know and they would provide. There was plenty of bathroom counter space, as well as 2 full shelves below that. There's a closet (with a double door) to hang your clothes, with some hangers included, and an iron and ironing board.There's a flat screen TV on top of a 3 drawer dresser.There's a desk with a drawer.The nightstand in between the 2 beds as a drawer and then a shelf beneath that.There's a rolling chair at the desk, a chair next to that, and an armchair and ottoman. There was a lamp behind the armchair that had electrical tape all around the part where you can turn it off and on, so I just left it alone, assuming it didn't work. There is a fridge, but no freezer like many hotels have built in to the mini fridge, so that was kind of a bummer as my husband had bought popsicles I had to let go to waste. There's a microwave, an ice bucket, a couple small plastic cups, a mini coffee maker, and some starter coffee, cream, and sugar. There seemed to be plenty of electrical outlets. I liked how, on the nightstand, there was a Cubie Mini power/charging station with 2 power outlets &amp; 2 USB charging ports. There were several other places behind the nightstand, next to the bed, and behind the desk to plug things in. That's always a bonus. The wifi worked well every time we used it; however, for some reason my Android phone had problems logging in after I'd left the hotel and come back the first day. It worked just fine the first time I got there, but when I left and came back it never could log in again. I asked the front desk and they showed me a number I could call on the error screen I was getting, but I just used another phone (an iphone), and the internet worked just fine on it. As for the lobby, we liked how, at any time, you can get coffee (regular or decaf) or hot water in there, as well as creamer and sugar. They also have a dispenser full of lemon water. It was a nice touch. Breakfast consisted of cereal, milk, muffins, cinnamon rolls, Texas-shaped waffles you make yourself, bread, scrambled eggs, sausage, hard boiled eggs, yogurt, Greek yogurt, bananas, cute little red apples, oranges, apple juice, orange juice (the good kind, not Tang), water, and coffee (I may be missing something). The breakfast area was clean and tidy. The breakfast room attendant was very friendly and helpful, telling everyone good morning and asking if they needed help with anything. (By the way, I can't remember what time the breakfast room opens, but it closes at 9 AM weekdays and 10 AM Saturday and Sunday.)When I went back to my room (on the fourth floor) after breakfast, my key to get in didn't work, so I had to go back downstairs to have them make me another one. (I hate when that happens.) It's especially a hassle because the elevator seems to be very slow. I tried to just take the stairs every time instead when I didn't have my toddler in tow. The room where the indoor pool and hot tub are is very warm, which is good, because it keeps the water warm, but not good if you don't plan on getting in to swim (you'll definitely be hot). The water was OK. Could have stood to be a bit warmer, but it wasn't uncomfortably cool (unless you get in the hot tub first). We went 30 minutes prior to closing at 10 PM and there weren't any towels available, so we had to get some at the front desk. The next day we went around 5 PM and there still weren't any towels, but this time we had come prepared. Also, the first night we weren't able to get inside the pool area using our hotel card like we should have been able to. The reader just kept flashing red. Someone was already inside and they let us in, and then the people who showed up after us we had to let in, as well. I guess because it was 30 minutes until closing? The next day, when we went at 5, it worked just fine. Also..this is a dog friendly place, so be aware of that. We didn't bring our dogs, but someone had brought theirs down the hall from us and for about an hour while they were away he/she barked the whole time, which was annoying. And on at least two occasions I heard from the room across from us when the patron entered her room her dog ran out every time and I could hear her yelling for it and apologizing as it growled and barked at someone walking down the hall. Other than that, I never smelled dog urine inside and never saw dog poop outside, so that was good.Overall, it was a pleasant stay with pleasant staff, a nice room, comfortable beds, and a good breakfast. We would definitely stay here again. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r487944584-Comfort_Inn-Denton_Texas.html</t>
@@ -452,9 +413,6 @@
     <t>Our king room was comfortable enough, and the staff was pleasant and helpful. But the TV was not HD, and the picture was awful. And it had the old 4-cup glass coffee pot, with the provided coffee that really only flavors 2 cups. Not a bad place, but less than expected from a Comfort Inn.</t>
   </si>
   <si>
-    <t>edgars20132015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r484193126-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -473,9 +431,6 @@
     <t>I stay in Choice Hotels most of the time and travel a great deal throughout the year.  I had stayed in this Comfort Inn four years ago.  I was very surprised by a number of things for Friday night.  We booked a handicap room and was there for a special weekend in Denton as two major universities were having graduation as well as it is Mother's Day weekend.  The quality of the room.  Shower stall needs completely refinished or replaced.  The floor is chipping off.  Bugs.  Not water bugs but little fast ones like roaches, I won't say these bugs in the bathroom were roaches but regardless the room needed sprayed.  The upholstered furniture has many stains that had tried to be cleaned but still there were numerous circles on the upholster.  There was no lightbulb in the lamp on the desk. I asked for a bulb as I was heading out for dinner. Inquired when I returned and was told NO as the maintenance man had to take care of that. A light bulb, really, so if you want to be sure you have plenty of light I suggest you bring your own light bulb just in case. The bed was ok but not particularly outstanding. Had family stay at the Quality same night. Their price was half of what we paid and room was comparable.  Our cost was $141.00 for the one night.  In returning to Denton I...I stay in Choice Hotels most of the time and travel a great deal throughout the year.  I had stayed in this Comfort Inn four years ago.  I was very surprised by a number of things for Friday night.  We booked a handicap room and was there for a special weekend in Denton as two major universities were having graduation as well as it is Mother's Day weekend.  The quality of the room.  Shower stall needs completely refinished or replaced.  The floor is chipping off.  Bugs.  Not water bugs but little fast ones like roaches, I won't say these bugs in the bathroom were roaches but regardless the room needed sprayed.  The upholstered furniture has many stains that had tried to be cleaned but still there were numerous circles on the upholster.  There was no lightbulb in the lamp on the desk. I asked for a bulb as I was heading out for dinner. Inquired when I returned and was told NO as the maintenance man had to take care of that. A light bulb, really, so if you want to be sure you have plenty of light I suggest you bring your own light bulb just in case. The bed was ok but not particularly outstanding. Had family stay at the Quality same night. Their price was half of what we paid and room was comparable.  Our cost was $141.00 for the one night.  In returning to Denton I would probably look elsewhere primarily over the lightbulb.  Seems petty but it seemed like a very simple request and one that should be easy to resolve.  They have plenty of signs up if you forgot something just let us know and we will provide compimentary.  The entrance floor was also dirty on Friday and was still dirty when we were leaving on Saturday morning.  I rarely rate a hotel poorly but this one is not up to the standards of what I usually find at a Comfort Inn.More</t>
   </si>
   <si>
-    <t>Missinginmichigan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r459493265-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -494,9 +449,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Lesliecaryl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r454309698-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -512,9 +464,6 @@
     <t>We enjoyed our overnight stop, and slept relatively well after being on the road for 10 hours. Only reason it doesn't get a five star is because of hallway noise in the middle of the night. It sounded like a bunch of girls decided to visit each other in the middle of the night. We were on the first floor, right off the lobby, so the desk person should have quieted them down. We thought about it, but in this day and age that can be dangerous.Also, the other thing was the shower spigot would barely work.Otherwise, it was very clean, well appointed and comfortable.</t>
   </si>
   <si>
-    <t>jross777</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r450291370-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -533,9 +482,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Tamara A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r441168481-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -554,9 +500,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Megan G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r439687751-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -572,9 +515,6 @@
     <t>I'm currently sitting in my bed at the hotel. It is seriously the only thing in the room clean  (thankfully). Walls are marked with scratches &amp; dirty hand prints, window covered with hand prints, carpet, lamps shades, &amp; wall decor covered in dust, air conditioner is disgusting, bathroom floor missing all the grout, remote missing battery cover, bed skirt has stains. I am not the least bit impressed. The parking lot is over crowded, we could not fit our standard sized truck in a space.</t>
   </si>
   <si>
-    <t>traci b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r403185088-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -593,9 +533,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Steven S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r384456770-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -614,9 +551,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Liz L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r382340292-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -635,9 +569,6 @@
     <t>Here for one night to tour UNT. Not what I expect from this chain at all. Check in was fine- pleasant front desk person. Hotel is old and in dire need of renovations. There was a very odd/off-putting odor in the elevator, and the hallway consistently, and things in the room just aren't as clean as I expect. Dust in a lot of places, like the bathroom counters, and a general dingy feeling on light switches and surfaces. The AC wouldn't turn off, and was filthy. Disappointed in what is normally a safe place to stay. Area is a tad sketchy for Denton IMO.  I am probably going to visit Denton a lot in the coming years, but will find somewhere else to stay. More</t>
   </si>
   <si>
-    <t>Penny G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r378272982-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -656,9 +587,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Jeanette G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r365882893-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -680,9 +608,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>mumontour08</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r363158704-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -704,9 +629,6 @@
     <t>In the hallway there were very dusty skirting boards and needs a good vacuuming of hall carpets.  It didn't seem dirty - just very dusty  Not much in immediate surrounds apart from a Dennys across the car park.  There was much more on the other side of the interstate though I couldn’t work out a way to walk there which was safe from the traffic (in fairness only 2 or 3 minutes to drive).  I thought the bed might be a bit too bouncy for my liking but turned out to be very comfortable.  There was very little noise from freeway considering how close it is to the hotel. Towels a bit thin.More</t>
   </si>
   <si>
-    <t>Landon M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r360455788-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -722,9 +644,6 @@
     <t xml:space="preserve">Great value and what you'd come to expect from a hotel in this price range. Rooms were clean and up kept. Pool and fitness area were meh. Wifi was a pain to connect to but since it was free no worries. Free breakfast was nicer thank most continental breakfasts so that was a plus. Recommended! </t>
   </si>
   <si>
-    <t>Phyllis T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r357670948-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -743,9 +662,6 @@
     <t>The front desk person was really nice. We had a basket of goodies since we are an elite gold member of Choice Hotels. However, the TV would not turn on. Someone had unplugged the TV from the back. We had to call the front desk to then get the TV on the correct channel to get cable. There was only one clothes hanger. We went down to the desk and all they had were wire hangers. In the bathroom, there was a used bar of soap in the holder. The base of the lamps were dirty we were staying here close to the hospital for a procedure the next morning so we needed a good night's sleep.  The radio came on full blast at midnight. Then at 12:15 am, the alarm on the same clock went off so I unplugged the clock.  The parking lot was a crowded mess due to trucks and moving vans!More</t>
   </si>
   <si>
-    <t>DLH123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r357153321-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -764,9 +680,6 @@
     <t>Checked in, clerk was nice. Went to the room, dropped my phone, when I picked it up by night stand was a empty condom wrapper. Upon further looking I don't think the furniture has ever been moved, as the dirt and dust were thick. Something was splattered on the other night stand, (white in color), not guessing that one. Sheets seemed clean, went to sleep during the night I got bit by a spider we are guessing. Went to have breakfast, no food available. The bathroom fan had a HUGE water stain around it. The bathroom floor was covered in hair, and the bath tub faucet would not stop leaking. Just a bad experience. Would I stay here again......NO.More</t>
   </si>
   <si>
-    <t>David_MD2713VH</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r344113052-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -785,9 +698,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Alamo341</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r333755236-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -806,9 +716,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>GMA1ST2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r330666025-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -827,16 +734,22 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>GL M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r325608827-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
     <t>325608827</t>
   </si>
   <si>
-    <t>Steve V</t>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>A clean but average place to stay.</t>
+  </si>
+  <si>
+    <t>I used a couple of points nights during a visit to Denton. Arrival was excellent with a helpful and friendly clerk. Room 411 was clean but there were a few things that didn't work. The bathroom light switch was defective, the toilet leaked water, and the toilet seat was dangerously loose. You could tell that problems had existed for a while. It caused me to wonder why housekeeping doesn't get problems reported and fixed. The rest of the room stay was OK. Good temperature control, comfortable bed and pillows, good TV.Weekday breakfast is at 6:00. Breakfast on the weekend isn't served until 7 am which I thought was unusual and brought grumbles from many other guests who wanted to leave early. Breakfast selection was good on Saturday, but I wanted to leave by 6:30 on Sunday so I had to  get my breakfast at a fast food.All in all, not a bad place, but there is some room for improvement. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I used a couple of points nights during a visit to Denton. Arrival was excellent with a helpful and friendly clerk. Room 411 was clean but there were a few things that didn't work. The bathroom light switch was defective, the toilet leaked water, and the toilet seat was dangerously loose. You could tell that problems had existed for a while. It caused me to wonder why housekeeping doesn't get problems reported and fixed. The rest of the room stay was OK. Good temperature control, comfortable bed and pillows, good TV.Weekday breakfast is at 6:00. Breakfast on the weekend isn't served until 7 am which I thought was unusual and brought grumbles from many other guests who wanted to leave early. Breakfast selection was good on Saturday, but I wanted to leave by 6:30 on Sunday so I had to  get my breakfast at a fast food.All in all, not a bad place, but there is some room for improvement. I would stay there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r320709602-Comfort_Inn-Denton_Texas.html</t>
@@ -854,9 +767,6 @@
     <t>Friendly spot, just north of the worst of the Dallas/FW traffic.  Lots of construction (road) going on in the area.  Hotel staff were friendly.  UNT is only a short distance away.  Clean and fair price.  We'd stay here again, if going back to UNT.</t>
   </si>
   <si>
-    <t>legendaryrob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r318033158-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -875,9 +785,6 @@
     <t>stayed here using my choice points(10,000) due to some constructive activity,overall, the property is good, the room itself was very nice-decent channel selection on teevee,however: the following needs attention: 1: the Jacuzzi in the the indoor pool area is neither hot nor active the in room coffee pot didn't  work (no biggie, as comfort has 24/7 lobby coffee) and the  combination snack/drink machine doesn't work.-I only lost a buck and a quarter, and didn't mention it -I aint hatin;.-wifi seems efficient and there is a courtesy pc in the lobby.-the beds are VERY good., and the ac uses a very smart thermostat.so, 3 out of 5.-as choice privlege member i was allowed a late checkout (noon) and wasnt asked for a cc to use my points-I approve  of nlin this.the qouted price online for customers hovers around 90, i think it actually wortjh around $70, all things considered-the breakfast was alright,, but I think the eggs were a bit dry.More</t>
   </si>
   <si>
-    <t>Prstdnr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r314482063-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -897,9 +804,6 @@
   </si>
   <si>
     <t>Stayed for 4 nights to attend a wedding.  Check-in was smooth.  Room was nice (and I know other reviews were complaining about loose tiles and no tp in bathrooms, but we had no such experience).  I can't say enough good things about front desk attendant, Michelle!  She took great care of us- when our a/c wasn't working on a Friday evening, she got right on the phone and arranged for mechanical help to arrive.  He got there quickly and fixed the problem.  When the printer wasn't working properly, Michelle bailed us out so we could print our boarding passes.  I also walked in on the end of a very unpleasant tirade a woman was giving to Michelle.  Woman though they had lost her reservation.  Michelle was very gracious when letting this rude woman know that she was at the wrong hotel.  The lady didn't even apologize- just walked out.  Breakfast was good except for Sunday morning when they closed the doors 15 minutes prior to posted closing time and started cleaning up around us.  They were already out of a lot of items when we arrived 30 minutes before closing.  Once the doors were closed to the motel guests, then the housekeeping crew descended upon the room and snarfed up what was left.  So, overall, we liked the facility, the room, and perks.  We didn't know there was a pool- never smelled any chlorine or mold as mentioned in other...Stayed for 4 nights to attend a wedding.  Check-in was smooth.  Room was nice (and I know other reviews were complaining about loose tiles and no tp in bathrooms, but we had no such experience).  I can't say enough good things about front desk attendant, Michelle!  She took great care of us- when our a/c wasn't working on a Friday evening, she got right on the phone and arranged for mechanical help to arrive.  He got there quickly and fixed the problem.  When the printer wasn't working properly, Michelle bailed us out so we could print our boarding passes.  I also walked in on the end of a very unpleasant tirade a woman was giving to Michelle.  Woman though they had lost her reservation.  Michelle was very gracious when letting this rude woman know that she was at the wrong hotel.  The lady didn't even apologize- just walked out.  Breakfast was good except for Sunday morning when they closed the doors 15 minutes prior to posted closing time and started cleaning up around us.  They were already out of a lot of items when we arrived 30 minutes before closing.  Once the doors were closed to the motel guests, then the housekeeping crew descended upon the room and snarfed up what was left.  So, overall, we liked the facility, the room, and perks.  We didn't know there was a pool- never smelled any chlorine or mold as mentioned in other reviews.  Maybe our noses just weren't as sensitive.  If we ever get back to Denton, we'd definitely stay there again.More</t>
-  </si>
-  <si>
-    <t>TravelGuest707</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r313618805-Comfort_Inn-Denton_Texas.html</t>
@@ -932,9 +836,6 @@
 Most hotels offer both shampoo and conditioner, but since we did not have conditioner, I am not sure if they don't provide it or if it was another thing housekeeping...We waited kind of late to book our room for family weekend, but we did end up getting a room here with one king bed.  When we arrived, the check in was pretty efficient and parking was available, even though they had a no vacancy sign on the entrance.  The elevator (they only have one) was pretty slow.  Our room was nice, and while we had trouble getting the water to come out of the shower head, they sent someone up immediately with WD-40 to fix it.The hotel is only a couple miles from campus so the daily back and forth commute was pretty easy, even with all the construction in the area.It's a non-smoking hotel, but it does have a smell.  Not sure if it's old smoke or the cleaning products they use.We had ordered a rollaway, but did not use it as the king bed pretty much takes up the room, and where we would have put it, would have blocked the door and may not have been smart in case of an emergency. The bed and pillows were comfy.We used the in-room refrigerator, but after the first night, housekeeping did not refill our coffee supply, so I just got it from the lobby.Most hotels offer both shampoo and conditioner, but since we did not have conditioner, I am not sure if they don't provide it or if it was another thing housekeeping forgot.The breakfast has decent choices - bagels, english muffins, danish, yogurt, cereal, eggs, bacon, fruit, juice etc.Internet was fine although I felt like I had to log in multiple times - morning, night, but signal strength was good.Our room was by the elevators, but we not only did not hear the elevator, I did not hear other people talking, walking or watching TV from in our room.AC worked and kept the room nice and cool.I would most likely stay somewhere else in the future, because I like to be a little more pampered in my hotel experience, but if other options were way too expensive or too far, I would stay here again.There is a Waffle House and Howard Johnson's in the same vicinity, so the impression is you are staying in a budget area.  Our room faced the back road, not the parking lot/freeway.  Still it felt, safe.More</t>
   </si>
   <si>
-    <t>Lizd209</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r308260100-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -953,9 +854,6 @@
     <t>In town for a family gathering. The rooms are nice. We had about 12 rooms of various  sizes. We needed to have a place for the family to visit at night after having dining out. The entrance way Lobby was the best they could do. The Breakfast room area was off limits to us even though a request was sent earlier. After more than 2 hours of sitting and stand around the lobby, there was word sent that we could sit in the Breakfast room. But most off the family had become tired of the awkward arrangement and went to their rooms. For 2 nights we made the Lobby our living room.More</t>
   </si>
   <si>
-    <t>Chelsea O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r308113061-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -974,9 +872,6 @@
     <t>We needed a room just for the evening, this was one of the cheapest hotels in the area.  There was definitely a musky smell in the lobby and 1st floor area.  It didn't bother us to bad since our room was on the second floor.  The front desk could have been a little more friendly, I felt like I was bothering her when I needed to ask a question.  The rooms were a nice size and the air conditioner worked GREAT!  I enjoyed the bed, but the tiles in the bathroom were uneven in some spots.  Breakfast in the morning was disappointing.  We went down about 9am when breakfast gets done at 10am, there was just a few pieces of some bread (that were hard) , no biscuits to go with the pot of gravy, some scramble eggs and 2 pieces of sausage left and no fruit.  We just had some juice and decided to stop after we left.  That was a major reason why we chose the hotel and it left a bad impression as we left that morning.  If all you need is a nice bed to sleep in overnight, this is not too bad of a place, but the amenities need some work.More</t>
   </si>
   <si>
-    <t>953traver</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r307897013-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -993,9 +888,6 @@
   </si>
   <si>
     <t>We stayed at another Comfort Inn in Perry, Oklahoma on our way down south and it couldn't' have been nicer so we assumed there was a standard similar to Hampton Inn, which is our first choice in hotels.  Well...our assumptions were wrong.  Upon stepping into the lobby I immediately smelled mould - typically I turn around when I encounter smells like that in a hotel, but we were really tired.  Our boys used the pool which was incredibly humid/hot -  each of the vents had mould surrounding them.  Aside from the smell it would have been a decent stay.  The beds were soft (which is a MUST for me) and the rooms adequate - even nice.  The tilling however in the bathroom was loose and you had to wear shoes going in there, which I thought was poor considering it could cause an accident or worse.  The mouldy smell was everywhere and it was evident that they had something going on as the flooring under the carpet in our room was warped in spots (adjacent to the tiling issue in the bathroom).  My suspicion was that our room was above the pool and there was some major issues going on.  As a suggestion....as the hotel owner I would purchase some antimicrobial agents and use them regularly and/or thermal fog until your pool issue is resolved otherwise the foul smell will turn off many potential customers.  Better yet...ditch the indoor pool...We stayed at another Comfort Inn in Perry, Oklahoma on our way down south and it couldn't' have been nicer so we assumed there was a standard similar to Hampton Inn, which is our first choice in hotels.  Well...our assumptions were wrong.  Upon stepping into the lobby I immediately smelled mould - typically I turn around when I encounter smells like that in a hotel, but we were really tired.  Our boys used the pool which was incredibly humid/hot -  each of the vents had mould surrounding them.  Aside from the smell it would have been a decent stay.  The beds were soft (which is a MUST for me) and the rooms adequate - even nice.  The tilling however in the bathroom was loose and you had to wear shoes going in there, which I thought was poor considering it could cause an accident or worse.  The mouldy smell was everywhere and it was evident that they had something going on as the flooring under the carpet in our room was warped in spots (adjacent to the tiling issue in the bathroom).  My suspicion was that our room was above the pool and there was some major issues going on.  As a suggestion....as the hotel owner I would purchase some antimicrobial agents and use them regularly and/or thermal fog until your pool issue is resolved otherwise the foul smell will turn off many potential customers.  Better yet...ditch the indoor pool altogether and either build one outside or not directly attached to the hotel.  I am not wanting to complain as such, but my throat and eyes started reacting to the mouldy air within about an hour if not less.  I honestly do not know how anyone could work at that hotel on a regular basis.  I do believe that if an air test would be performed it would fail miserably.  It is a shame because the breakfast was great and the beds comfortable - I just couldn't get past the air quality which for me is a major deal breaker.  You shouldn't get sick when staying overnight in a hotel.  I hope this review serves to help improve the situation as opposed to bashing.  The people working there were nice and helpful so that certainly isn't my complaint.  Health issues are serious however and this hotel definitely needs a plan of action to rectify a situation that will only get worse if left alone.More</t>
-  </si>
-  <si>
-    <t>citygirlinthewoods</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r305564185-Comfort_Inn-Denton_Texas.html</t>
@@ -1020,9 +912,6 @@
 My husband and I then came down with...We arrived on a Sunday for a 12 hour stay in Denton. I chose the hotel because it had a hot tub and allowed dogs. It was the cheapest hotel meeting our needs. We arrived at 4 on a Sunday. They must have been short-staffed because it was well past late check-out time and neither of our rooms were ready. The manager turned my father and myself away. My husband, who had driven 5 hours since the morning was exhausted and sunburt just from being in the car. He had to demand the keys to our room. It turned out it WAS ready but they didn't want to offer to check.The pool was tiny. The hot tub temp showed 104 but was clearly lower. It was hotter outside than in the hot tub. The rooms were decorated very well in a Victorian boutique style with high headboards and rich colors. That is about where the quality ended. We had a pet room which had gum ground into the carpet. It also had dark gray stains all over the carpet. The ceiling had a 6 foot long water peel across it. From the looks of the wall-mounted air conditioner unit, it may have been a roof leak. And this is the only hotel I have ever stayed at where they started us off with 1/3 toilet paper rolls with no additional rolls.My husband and I then came down with a nasty summer cold. Thanks previous hotel guest! Not! I do not recommend this hotel. They need major improvements.More</t>
   </si>
   <si>
-    <t>Gilda R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r302849228-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1050,9 +939,6 @@
     <t>The hotel was packed full and I know the work load was heavy for these employees.  But one of your employees really stood out.  Her name is Michele.  She is so friendly and always had a welcoming smile and ready to help in any way to make our stay comfortable.  She certainly made our stay a happy one and whenever we are in that area again we will be booking at this hotel.  Thanks Michele for making our stay a wonderful experience.Gilda, Room 307More</t>
   </si>
   <si>
-    <t>marcarelisa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r297025622-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1077,9 +963,6 @@
     <t>We were so fooled by reviews. We must have gotten the one room that hadn't been cleaned in months. Dust was on all furniture.  It too was very dirty and with stains.  The walls full of stains.  The tv didn't work.  It would start off bright, but get darker the longer it was on a channel.  Housekeeping didn't sweep or vacuum the floors or clean bathroom. The room itself is very dark because of color scheme. Dark yellow walls with dark red accent wall. The ceiling was also painted yellow! The internet connection was very slow to none as well as phone signal. Would never stay here again.More</t>
   </si>
   <si>
-    <t>Cedar_Park_chump</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r293898303-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1101,9 +984,6 @@
     <t>I wanted a hotel in Denton that was north of the merge of I 35E and I-35W and this Comfort Inn was reasonably priced.  The people at the desk were friendly and our room was spacious and clean.  One thing I liked was that after slogging through construction in Ft. Worth, I could walk to dinner, instead of hunt all around Denton.  We had a peaceful night's sleep in a comfortable bed.  The free breakfast was good and the dining room was bright and clean.  An all-around nice place to stay.More</t>
   </si>
   <si>
-    <t>Kathy M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r292500872-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1125,9 +1005,6 @@
     <t>We were lucky to get this room during a storm and late at night. It was the only king room available, was a handicapped accessible room, which was fine. It was quiet, with a very comfortable bed. The only problem was a soiled chair. Thanks to Comfort Inn for a much needed rest, at a reasonable price.More</t>
   </si>
   <si>
-    <t>Stephanie P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r285519139-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1146,9 +1023,6 @@
     <t>The Hotel was nice overall, in great shape and kept up. Upon check in, I wanted to change my payment to cash and the front desk clerk told me to do it in the morning. Unsure why, as he wasn't very busy, but I said ok. We got a late check out time as we were checking in a little late. I asked for a 2:00 check out, knowing this was a choice hotel, and members are entitled to a checkout as late at then. I was told the latest I was allowed was 1 pm but I was set to check out at 1. Upon leaving, we passed the morning front desk clerk in the elevator, and she let us know to leave our keys on the desk. I told her that I was going to pay with cash and was told to do it before I check out. She told me that everyone had already been checked out of the system by 11 and that she had no late departures. Not only was I not marked my time, she never made any calls to make sure the rooms were actually vacated. She assured me that she could not change my payment past that point. Now, I not only being a choice member, I am a choice employee so I know how the system works. She could have very easily changed my payment without even checking me back in,...The Hotel was nice overall, in great shape and kept up. Upon check in, I wanted to change my payment to cash and the front desk clerk told me to do it in the morning. Unsure why, as he wasn't very busy, but I said ok. We got a late check out time as we were checking in a little late. I asked for a 2:00 check out, knowing this was a choice hotel, and members are entitled to a checkout as late at then. I was told the latest I was allowed was 1 pm but I was set to check out at 1. Upon leaving, we passed the morning front desk clerk in the elevator, and she let us know to leave our keys on the desk. I told her that I was going to pay with cash and was told to do it before I check out. She told me that everyone had already been checked out of the system by 11 and that she had no late departures. Not only was I not marked my time, she never made any calls to make sure the rooms were actually vacated. She assured me that she could not change my payment past that point. Now, I not only being a choice member, I am a choice employee so I know how the system works. She could have very easily changed my payment without even checking me back in, and if she did check me back in for a second, not a biggie. I did not want to make a payment with that card but I was forced to because the employees at this Hotel do not know how to use the system. We were put in a room where the AC did not cool of but yet, kept rising in temperature by the minute.The gentleman at the desk did come up and move us to a new room, but acknowledged that the AC in that room had been messed up for a while, which caused me to wonder why we were put in there in the first place. Also would be nice if the pool hours were a bit longer. Very unhappy with the overall service here and the decisions that are being made against choice in a choice hotel.More</t>
   </si>
   <si>
-    <t>southerntrucker</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r284789348-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1167,9 +1041,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Adam M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r283022793-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1185,9 +1056,6 @@
     <t>The room obviously suffered from water damage as the ceiling had stains and peeling paint.  We also got stuck on the pet floor (even though we don't have a pet), and the various dogs barked for several hours most nights.  We complained to the staff, but they didn't do anything about it.  We thought we would relax one evening in the pool and hot tub.  The pool water was murky, and the hot tub was broken.  Finally, the A/C unit is extremely loud when it kicks on throughout the night.  The breakfast was fine, and there were no other issues.</t>
   </si>
   <si>
-    <t>bkldy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r277971041-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1201,9 +1069,6 @@
   </si>
   <si>
     <t>Checkin was fine, asked about places that deliver pizza and was told it should be in the room and, if not, let them know and they'd get the info for me. Would rather have just gotten it when I asked. Of course, the info was not in the room so we had to do some detective work to find the information. Breakfast was good, hot, nice selection, etc. The lady in charge of breakfast was friendly and helpful. Room was fine, nothing great, nothing horrible. I did like that they had a vent in the bathroom to help with steam during a shower.</t>
-  </si>
-  <si>
-    <t>RnRFun</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r275114763-Comfort_Inn-Denton_Texas.html</t>
@@ -1229,9 +1094,6 @@
 The courtesy of a call back would have gone a long way after 4 messages, but my issue didn't warrant the attempt apparently. Not one, tiny attempt. I was very polite, like my momma taught me. I worked in a hotel when I was younger- my manager then would never have ignored a guest, past or present. It surprises me to see it...I stayed at a great rate for an event in town. Staff appeared overworked but pleasant. Unfortunately a week before I arrived I altered my reservation which went from 1 Double room for three nights to 2 King rooms for two nights arriving one day later, and somewhere in the mix it became 3 King rooms, one of which was still for three nights arriving the day before I was in town [the other two Kings had the correct arrival date.] This caused me to have a no-show charge for one night. By the time this was realized, I was back out of town and tried to call the manager Margaret Heggan 2 weeks later to no avail. I left messages for her to call me with Anna [Ah-na, sorry, not sure how to spell it!] and Marshall, and left 2 voicemails on Margaret's phone. The third and fourth time I tried to call her line, the voicemail box was full and wouldn't accept another message. Checking messages or voicemail is not a priority for Ms. Heggan.The courtesy of a call back would have gone a long way after 4 messages, but my issue didn't warrant the attempt apparently. Not one, tiny attempt. I was very polite, like my momma taught me. I worked in a hotel when I was younger- my manager then would never have ignored a guest, past or present. It surprises me to see it happen, but there's definitely no way 2 voicemails and two hand taken notes were "lost".My caution is this: if you have a problem, do not expect a response. And don't alter your reservation or you may be out of some hard earned cash.More</t>
   </si>
   <si>
-    <t>Denise C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r273394589-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1247,9 +1109,6 @@
     <t>Everything from start to finish was phenomenal.  It's a breath of fresh air to see staff that enjoy being service oriented!  Our room was right across from the swimming pool/exercise room, but we didn't hear anything.  I expected noise, since the hotel was full (no vacancy signs on the doors), but we slept soundly.  A wonderful experience; glad we're booked to stay there again!</t>
   </si>
   <si>
-    <t>Jenniederklein</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r261154616-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1265,9 +1124,6 @@
     <t>We were really impressed by how friendly the staff was during our stay. The "breakfast lady" was one of the hardest working people I've ever seen in a hotel and was constantly checking on us. The room was incredibly clean and the bed was super comfy!</t>
   </si>
   <si>
-    <t>awplus6</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r260227862-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1283,9 +1139,6 @@
     <t xml:space="preserve">Stayed here with our 6 children. Very impressed with how clean and comfortable our rooms and beds were. Staff was very nice and helpful. We requested 2 rooms next to each other and they made that happen for us. The breakfast was very good. With lots of choices sausage scrambled eggs waffles toast pastries bagels waffles biscuits gravy cereal coffee and juice. We will stay again. </t>
   </si>
   <si>
-    <t>BeatleLady78</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r260114444-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1301,9 +1154,6 @@
     <t>We stayed here for the 35 music festival and I would definitely recommend. Pet friendly rooms on the fourth floor. Very convenient for us. Only problem was that our room had a small leak in the corner but the staff notified us of the issue. We didn't mind at all because we stayed at the fest for the entire day anyway. They came up and fixed it while we were out. Clean room &amp; good location to Denny's, Waffle House, a Mexican restaurant and two convenience stores. No fee for parking and we took our pets to a lot across the street to do their business. Will recommend to friends and family!More</t>
   </si>
   <si>
-    <t>Connie P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r252782325-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1322,9 +1172,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>Sherrie D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r241159727-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1364,9 +1211,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>robertru44</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r237905494-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1382,9 +1226,6 @@
     <t>Stayed here Oct 2nd this year as stopover on way to granddaughter's wedding. Nice place off I 35 and 380. Easy to get to. Room was quite nice and comfortable bed. Flat screen TV with good selection of channels. Breakfast was usual fare. Would stay again</t>
   </si>
   <si>
-    <t>Mary Jane S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r235370391-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1409,9 +1250,6 @@
     <t>In the area on business for the weekend, we chose this hotel for its location. Everything was very nice and we would stay again without hesitation. Our bed was just wonderful with several firm and soft pillows and high-quality linens, good bath towels, spacious bathroom counter, good television selections, and a micro-fridge. I especially appreciated the deflector over the A/C unit; so often, the cool/hot air just goes up the face of the window and blows the drapes. Breakfast area is well-attended by a most personable hostess who kept everything clean and stocked. Food was very nice with some truly amazing orange-cranberry muffins. We found the overall decor not really to our taste, but everything was well maintained. My only minor issue was with the area at the base of the toilet which had been overlooked in, my guess, at least several guests' stays. I mentioned it at the desk in the morning and was disappointed it had not been addressed when we returned that evening. Just a little short of our expectations from Comfort Inn (we're in hotels 150+ nights a year for our work). The shower curtain was also due for replacement and/or cleaning.  Staff was personable, professional and welcoming at all times. It was an exceptional value, too. Thank you. (Accepts pets, by the way. Shared the elevator a few times with a dog but had no issues other than not liking them.)More</t>
   </si>
   <si>
-    <t>Rod P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r233990180-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1430,9 +1268,6 @@
     <t>We have stayed at this property several times before. The property has been severely degraded. I reserved a room for my wife expecting the same great experience for her that we came to expect from our previous stays. After she was assigned a room,she found the room door wide open and the room had not been cleaned. Her second room assignment was adequate. She did not partake in breakfast as they were on "weekend hours" and didn't start serving breakfast until 7am. Not very traveler friendly.  Sad to see this property go downhill.More</t>
   </si>
   <si>
-    <t>Trisa D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r233748397-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1451,9 +1286,6 @@
     <t>We were going to be late, around 9pm, to check in after visiting our daughter at UNT. I called to let them know and the woman said she'd document it and they'd see us later.  We arrived at 9:30pm and the man at the desk said our room had been canceled! ! We had to scramble around to find a room late at night in a college town with a football game in town. We will never stay there again.  More</t>
   </si>
   <si>
-    <t>Jerry M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r230138925-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1475,9 +1307,6 @@
     <t>This is a very nice and very clean hotel.  The gentleman at the front desk when we called, Marshall, was SUPER!  Not only did he confirm that he had a room available, he also assured us that our coupon rate would be honored.  We arrived a few minutes after Marshall got off duty, but he saw us arrive in the parking lot and came back to assure that we had everything we needed.  Not often do you find that kind of concern and customer service skills.The following morning we received another pleasant surprise at breakfast.  Very clean, very good food, and the lady on duty was terrific!  So upbeat, joyful, and helpful.  She had everyone in the room, if not laughing out loud, at least smiling.What a great experience!More</t>
   </si>
   <si>
-    <t>Al J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r228157797-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1496,9 +1325,6 @@
     <t>Internet access was totally inadequate. I would compare it to the early days of internet telephone access.  I needed to go  to a restaurant on an adjacent property to get decent access and speed. Staff was understanding but apparently unable to do anything about the lack of service. Other than that the place was nice, quite and quite convenient to University Dr and Rt35.  Breakfasts were the usual Comfort Inn food. Ambiance was greatly improved by  a very pleasant Breakfast hostess. Hotel was clean and quiet. I would recommend the hotel with the caveat that it needs to improve the quality of its wireless service.More</t>
   </si>
   <si>
-    <t>Cody W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r222292049-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1526,9 +1352,6 @@
     <t>I came here couple weeks ago the staff is top notch stayed in room 109 which is super Awesome.  But even more AWESOME is Marshall and Melody and staff they are what it is all about I will definitely be coming back to stay again. And Donna is super nice and very smart. Thanks for a delightful stay ladies and guyMore</t>
   </si>
   <si>
-    <t>Shawneemom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r218030745-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1547,9 +1370,6 @@
     <t>We stayed here again after 5 years and it had really changed.  A lot less clean, our room had a gross smell like they were covering up cigarette smoke.  The tv didn't work and once we got it to work, no sound.  The pool was freezing cold.  Don't waste your time staying here.  We didn't stay for breakfast, couldn't get out fast enough!More</t>
   </si>
   <si>
-    <t>NewOrleansSunshine</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r213196731-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1577,9 +1397,6 @@
     <t>This stay was wonderful. Our room was so clean and comfy. The beds are great and the breakfast is great. The staff was friendly and knowledgeable. This is a great value for the money! Would highly recommend.More</t>
   </si>
   <si>
-    <t>widerangetraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r211742183-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1604,9 +1421,6 @@
     <t>I was a late check in around 2am. The night guy looked like a hippie had long hair and I though to myself,  "oh no"  but he was absolutely just wonderful!! Very polite and professional. My room was very comfortable and the bed was great. The cleanliness of my room was just spectacular. I could not have been happier with my stay, if I am ever back in Denton and need to stay a night this will definitely be my go to!!More</t>
   </si>
   <si>
-    <t>BrendaG962</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r209555058-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1632,9 +1446,6 @@
   </si>
   <si>
     <t>The stay could not have better.  The bed was so comfortable, the hotel and room very clean and quiet.  The breakfast bar was very good (fresh hot waffles shaped like Texas).  The staff was both friendly and professional.  We would definitely stay here again.More</t>
-  </si>
-  <si>
-    <t>Sarah L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r209165102-Comfort_Inn-Denton_Texas.html</t>
@@ -1666,9 +1477,6 @@
 The hotel is located by...This was our free night with Choice hotels. We are members of Choice hotels and we took advantage of the promotion ''make two different trips and get one night free'' which was at the beginnig of May. So we stayed one night in Comfort Inn in Ontario (Canada), one night in Missouri and we chose this place for our free night.We are very glad we did for the place was really nice. First, the staff was so welcoming. My name was written on a board ''Welcome to Choice hotel members!''. I had never seen that before. We got free fresh cookies at the reception. Nice touch! There was also free coffee 24 hours a day.  We really felt pampered. I really like the decor of the hotel, it is really beautiful.The room we were given was really beautiful and the bed was sooo comfortable. It could have been a bit larger but it was OK for what we needed. Everything worked great: wifi, fridge, TV, wake-up call, etc. It was clean in general but the chambermaid forgot to clean one shelf in the bathroom (it was really dusty) and there was a little bit dust in the corners of the room. Everything else looked really clean.Unfortunately, we were too tired to try the swimming pool or the fitness center so I can't comment on that. But it looked inviting. Breakfast was good.The hotel is located by the highway but the noise didn't disturb us. We slept very well. It is close to many restaurants. We had dinner in Denny's next door which is so close we almost have the impression it is on the same property.More</t>
   </si>
   <si>
-    <t>IRENE M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r206845809-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1687,9 +1495,6 @@
     <t>first time was great. 4 months later it was dirty, had to ask to have bathroom floor washed. ++ dust around the perimeter of room. staff very helpful. breakfast very appealing . beds very comfortable &amp; rooms quiet. Hot tub only luke warm. Large swimming pool.More</t>
   </si>
   <si>
-    <t>jnj8182012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r205691451-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1714,9 +1519,6 @@
     <t>This hotel was our only choice since the others near by had lower reviews. We were stranded at Dallas due to a storm and our flight was cancelled. We spent the night here and the beds were great, the room was super clean and in the morning when we went down to have breakfast everything was so clean and good. Glad we stopped here.More</t>
   </si>
   <si>
-    <t>Kay W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r195775252-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1744,9 +1546,6 @@
     <t>We have just returned from a 12-day trip and this Inn is the very best we had everywhere!  The beds are like you would have in a very high end hotel.  Savannah at the front desk was awesome!  The Denny's restaurant is next door so once you get settled you don't have to drive elsewhere.More</t>
   </si>
   <si>
-    <t>T S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r192717072-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1774,9 +1573,6 @@
     <t>Absolutely Fabulous place to stay!  Super friendly and honest staff.  I lost my diamond wedding ring, but was not sure where or when I had lost it.  Kim and Ana searched for it and searched for it but couldn't find it.  Later Ana had gone back to the room and was dusting and found it under the phone and called me to let me know they had found it!  They are incredible, super friendly staff.  Savannah was taking care of the front and was also super friendly.  Everything is really clean and comfortable.  Breakfast area really clean and breakfast is served hot and fresh.  We wouldn't stay anywhere else.More</t>
   </si>
   <si>
-    <t>ski5309</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r190626433-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1804,9 +1600,6 @@
     <t>This hotel was the BEST out of 3 we had to stop at on an unpleasant winter road trip. Hotel is very clean, nicely modeled, beds closer to Hilton style in comfort, and staff was very kind and helpful. I would recommend this hotel to anyone who has to stop in Denton, Texas.Every other place we stayed at was HORRIBLE! Thank you Denton Comfort Inn for being the one pleasant stay we had!More</t>
   </si>
   <si>
-    <t>BadgerMbTraveller</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r190284127-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1831,9 +1624,6 @@
     <t>Stayed just one nite, and found it conveniently just off the interstate. We used a Hotelcoupons.com booklet, which this hotel was part of, and saved about $30. off the regular price. Front desk personnel was friendly and helpful. Rooms were clean, beds were very comfortable and the free internet worked just fine. Choices for restaurants near by was a little limited, but if you drove about 5 miles there were plenty to choose from. As an overnite stop, I would certainly stay again.More</t>
   </si>
   <si>
-    <t>dmdsjd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r187120200-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1849,9 +1639,6 @@
     <t>After getting caught in an ice storm and being stranded in the car on south I35 for 18 hours due to the road closure, we finally made it to Denton, TX at about 9 in the morning.  We were warmly greeted by Kim behind the check-in desk and her husband Billy who headed up the breakfast room.  We were offered breakfast immediately even though it was almost finished and a warm room and very comfortable bed.  We were so happy to have made it there, and these folks were fantastic.  We would stay there again in an instant!  Thank you Kim and Billy.Sue and Dave from Wisconsin</t>
   </si>
   <si>
-    <t>Margaret B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r186384377-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1870,9 +1657,6 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>2TheBeach4Ever</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r184829017-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1888,9 +1672,6 @@
     <t>I would give the hotel five starts except the hot tub was definitely hot tub.  After a long day in the car, we always look for a hotel with a hot tub to soak our weary bones.  Everything else was great.  Nice room and wonderful breakfast buffet.  We had a coupon from one of those travel books so it made it very affordable.  Nice extra is they have coffee and warm cookies at the counter.</t>
   </si>
   <si>
-    <t>ttree23</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r181809982-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1909,9 +1690,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>twighlightgirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r180494227-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1925,9 +1703,6 @@
   </si>
   <si>
     <t>We have only just got back home after staying there for 5 nights we had 2 rooms one for my husband &amp; myself the 2nd my 3 friends. check inn was quick and the staff were very helpful, we were always asking them for directions &amp; tips on what to see etc .It was handy to have the free breakfast, coffee &amp; fruit was available.This hotel is not in a major tourist area but where ever you stay you have to travel so this is a good hotel option, if in the area would definitely stay again.</t>
-  </si>
-  <si>
-    <t>GREGORY R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r179866831-Comfort_Inn-Denton_Texas.html</t>
@@ -1959,9 +1734,6 @@
 The next evening we come in again, after working all day and the room key will not work once again!  My husband goes down to the front desk to find out why the key won't work tonight.  They said the card we provided was not valid (as merchants when we take...We have been staying at this hotel 3-4 times a year for approximately the last 3 years.  The last time we stayed in the spring of 2013 there were a few issues, but we thought we would give them another chance--- everyone can have a bad week.  WE WILL NOT GIVE THEM ANY MORE CHANCES!!!!Savannah was the only member of the staff that carried herself with any dignity or professionalism.When we checked in we were told there was a problem with Corporate Lodging, we contacted CL, things appeared to be fine.   We get a phone call in a couple of hours requesting another card, no problem, my husband takes another card down, they run it and everything is fine.We come in the next evening after working all day and the room key will not work.  I go down to the front desk, the young man says there is an issue with CL, I explain that Savannah took care of that the evening before.  He rescans the room key.  I asked him why they did not call and discuss the situation, rather than locking the door!!!!!!  CLUELESS The next evening we come in again, after working all day and the room key will not work once again!  My husband goes down to the front desk to find out why the key won't work tonight.  They said the card we provided was not valid (as merchants when we take a credit card it tells us immediately if the card is good).  FINE, we pay with cash!  When we get to our room it has not been cleaned (7:30 pm)!We feel like the least that could have been done is for phone calls to be made rather than locking people out of their room, but apparently that would be too difficult for the management at this establishment.More</t>
   </si>
   <si>
-    <t>Carla S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r176075505-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1980,9 +1752,6 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t>Marta M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r175625296-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -1998,9 +1767,6 @@
     <t>We went to Denton for a visit to University of North Texas.  The location was great since it was very close to UNT.  The service was good, and the room was a great size.  We had a great experience. With breakfast being included, it was a good plus. The food was good, plenty and several items to choose from.  We definitely would recommend this hotel and location.  We had a great night sleep</t>
   </si>
   <si>
-    <t>sweetpea088</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r165977975-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2019,9 +1785,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>TimMacAlaska</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r165468057-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2037,9 +1800,6 @@
     <t xml:space="preserve">I stayed at this Comfort Inn and it was at the bottom of the many Comfort Inn's I've stayed. Same breakfast as an Econolodge, not sure why they didn't have the full hot breakfast as all the others I've stayed in have. HOT Tub was ice cold and know one knew why. Motel 6 is next door, for half the price. </t>
   </si>
   <si>
-    <t>Krod40</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r163910266-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2064,9 +1824,6 @@
     <t>Charged my bank account after giving them another form of payment would not resolve issue  Manager said it was not her problem. Pool over chlorinated hurt my eyes.  Broken things in elevator- cans of barbecue Vienna sausages all over front walk and flower bed.  More</t>
   </si>
   <si>
-    <t>Hooponyou</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r159963242-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2085,9 +1842,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>Ladonnaw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r159853283-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2106,9 +1860,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>off-the-map</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r152217930-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2130,9 +1881,6 @@
     <t>I stay in 40-60 hotels a year on business, and I rarely write reviews unless the hotel was very bad or very good.  This hotel falls in the very good category because it had a lot of the comforts you would find in a more upscale chain.  Let's start with the bed which provided by far one of the most luxurious night sleeps I have had in a long time, and the linens were top notch and comfy.  The bathroom was well appointed with upgraded vanity and sink as well as excellent water pressure in the shower.  The decor of the room was also quite pleasant with soothing paint hues and decent artwork.  Breakfast was what you would expect though they did have hot eggs and sausage to go along with the normal fare.The hotel was mostly empty when I stayed there which meant fast internet which is always a plus on business.  The only downside is it's location which is behind some other hotels off of I-35, but a two minute drive across the highway put you in a shopping mecca with plenty of restaurants.  I will definitely stay here again next time I am in Denton.More</t>
   </si>
   <si>
-    <t>bolderdash123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r145993818-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2151,9 +1899,6 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>Roy S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r145375676-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2172,9 +1917,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>Christina P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r139373095-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2196,9 +1938,6 @@
     <t>I was In Thackerville, OK for PBR and everything was booked! I had a coupon, and decided to drive the 34 miles to Denton to stay at this hotel. Upon checking In, "Kim" was very nice and friendly. I paid $66.67 cash for the room. The room was not well cleaned. Turned In around 10:00 and couldn't sleep because of the loud stomping upstairs! After about an hour of this going on, I called the front desk to complain. I made several calls over a 15 minute period and no answer! Finally a gentleman answered and I was able to complain about the noise. The next day, after checking out, I checked my account and the hotel had charged $69 plus $66.67, for a total of $135.67 charged to my debt card, after I had already paid cash! I called the hotel and spoke to "Donna" but she was no help at all, just kept talking over me and wouldn't let me get a word In! She never offered me my cash back! I had to wait till Tuesday because of Labor Day to contact the General Manager, "Margret". I spoke to her and explained my situation. I explained, It defeated the whole purpose of me driving the extra miles to stay at her hotel because I was In town to do some gambeling and the money I had on my debt card was my gas money to get back...I was In Thackerville, OK for PBR and everything was booked! I had a coupon, and decided to drive the 34 miles to Denton to stay at this hotel. Upon checking In, "Kim" was very nice and friendly. I paid $66.67 cash for the room. The room was not well cleaned. Turned In around 10:00 and couldn't sleep because of the loud stomping upstairs! After about an hour of this going on, I called the front desk to complain. I made several calls over a 15 minute period and no answer! Finally a gentleman answered and I was able to complain about the noise. The next day, after checking out, I checked my account and the hotel had charged $69 plus $66.67, for a total of $135.67 charged to my debt card, after I had already paid cash! I called the hotel and spoke to "Donna" but she was no help at all, just kept talking over me and wouldn't let me get a word In! She never offered me my cash back! I had to wait till Tuesday because of Labor Day to contact the General Manager, "Margret". I spoke to her and explained my situation. I explained, It defeated the whole purpose of me driving the extra miles to stay at her hotel because I was In town to do some gambeling and the money I had on my debt card was my gas money to get back home. I live 7 hrs away, and my money was not accessible to me because of the hotel charging my card! "Margret: was rude and unprofessional! She even commented-"It's not that much money anyway" and "we didn't force you to stay at our hotel!"  What kind of customer service Is this? I asked for the # of the person above her and she said she couldn't give me that Information! Very unprofessional manager of this property! I will never stay here again! IMore</t>
   </si>
   <si>
-    <t>Pam W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r137629303-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2217,9 +1956,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>mljhnsn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r131406397-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2247,9 +1983,6 @@
     <t>I have stayed at this hotel before and found it to be ok. The bathroom was dirty last time I stayed there. Well nothing has changed. This time the bathroom was in worse shape. I almost wondered if they skipped the room for cleaning that day. There was urine on the seat of the toilet. Hair in the bathtub, and the faucet was sticky with goo. I did contact management and they were quick to do a sub standard job on cleaning it. I know they were very busy and I appreciate the time the front desk took to come and clean it. The floor in the bathroom had not been swept or mopped. There was a shoe print stain that could have been mopped up. I had to wipe down the faucets and tub. The floor in the room had not be vacuumed. The sheets on the bed were clean and the bed was comfortable. This is a newer hotel and it has modern decorations, such as marble counter tops etc..But its sad when that is not maintained and allowed to be filthy. Downstairs in the public bathroom there were no paper towels. It seemed they might have been short staffed.  Given two experiences of dirty bathrooms it makes me worry about staying there again in the future.  And another odd thing I was awoken in the middle of the night by the room vibrating or shaking. It seemed...I have stayed at this hotel before and found it to be ok. The bathroom was dirty last time I stayed there. Well nothing has changed. This time the bathroom was in worse shape. I almost wondered if they skipped the room for cleaning that day. There was urine on the seat of the toilet. Hair in the bathtub, and the faucet was sticky with goo. I did contact management and they were quick to do a sub standard job on cleaning it. I know they were very busy and I appreciate the time the front desk took to come and clean it. The floor in the bathroom had not been swept or mopped. There was a shoe print stain that could have been mopped up. I had to wipe down the faucets and tub. The floor in the room had not be vacuumed. The sheets on the bed were clean and the bed was comfortable. This is a newer hotel and it has modern decorations, such as marble counter tops etc..But its sad when that is not maintained and allowed to be filthy. Downstairs in the public bathroom there were no paper towels. It seemed they might have been short staffed.  Given two experiences of dirty bathrooms it makes me worry about staying there again in the future.  And another odd thing I was awoken in the middle of the night by the room vibrating or shaking. It seemed mechanical but have no idea what it might have been.The kitchen staff as usual was Superb!More</t>
   </si>
   <si>
-    <t>oldiceman11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r126229934-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2277,9 +2010,6 @@
     <t>A great place to stay.Breaky very goood.Rooms very clean.Great staff/ Easy to get to locationMore</t>
   </si>
   <si>
-    <t>David B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r122021967-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2298,9 +2028,6 @@
     <t>November 2011</t>
   </si>
   <si>
-    <t>Canfamily_9</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r120365084-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2322,9 +2049,6 @@
     <t>The hotel was easy to find.  Our family enjoyed the pool &amp; hot tub; the pool was warm &amp; a fair size and the hot tub was nice &amp; hot!  It was all a bit too chlorinated, but ah well, better than being underchlorinated!  The hotel was quiet &amp; the beds were comfortable.  Our room had a fridge &amp; microwave.  The breakfast was a typical Choice hotel breakfast.  The hotel was also close to services we needed.  The main problem was the hotel was not especially clean: shampoo was left in the shower, our room had not been vacuumed...I kept finding things around the room left from the people before.  We let the front desk person know, but of course nothing was done about it but an apology.  Our stay was fine, and the hotel seemed okay on the surface, but when you looked closer, it really was not...I tried not to look too close.  Even the elevator had hand prints all over.So in short, the hotel was fine, but I will try another one next time I am in the area.More</t>
   </si>
   <si>
-    <t>Neskya</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r118179990-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2367,9 +2091,6 @@
     <t>This was a nice hotel.  The staff was very friendly and helpful.  Its a newer hotel in the area.  I was disappointed that it wasn't as clean as i would expect a hotel to be.  There was a bugs leg laying  behind the bathroom door for our entire stay.  The knobs of the side table and office table were either half way hanging off or not on at all.  In one drawer we found the knob to that bed side table.  It seems they didn't pay much attention to quality and details when decorating the facility.  The accent wall paint on the one wall was splatter on the adjacent lighter colored wall, as if no time was taken to tape off that wall as to perform a quality paint job. The beds were comfortable and plush, plenty of pillows.  I felt the kitchen breakfast area was really small and the options were few.  The kitchen staff was SUPERB!!! in taking care of the guest.  I would stay there again it wasn't disgusting, just disappointing.More</t>
   </si>
   <si>
-    <t>Shining_Star73</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r116269964-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2388,9 +2109,6 @@
     <t>June 2011</t>
   </si>
   <si>
-    <t>KatherineB44</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r83070978-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2409,9 +2127,6 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>Steeletraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r67639370-Comfort_Inn-Denton_Texas.html</t>
   </si>
   <si>
@@ -2446,9 +2161,6 @@
   </si>
   <si>
     <t>October 2009</t>
-  </si>
-  <si>
-    <t>MsToni712</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d1177008-r29296698-Comfort_Inn-Denton_Texas.html</t>
@@ -2980,47 +2692,43 @@
       <c r="A2" t="n">
         <v>57722</v>
       </c>
-      <c r="B2" t="n">
-        <v>124923</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -3040,54 +2748,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57722</v>
       </c>
-      <c r="B3" t="n">
-        <v>124924</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3107,54 +2811,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57722</v>
       </c>
-      <c r="B4" t="n">
-        <v>9044</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -3174,54 +2874,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57722</v>
       </c>
-      <c r="B5" t="n">
-        <v>22739</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3235,54 +2931,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57722</v>
       </c>
-      <c r="B6" t="n">
-        <v>124925</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -3300,54 +2992,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57722</v>
       </c>
-      <c r="B7" t="n">
-        <v>80377</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3361,54 +3049,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57722</v>
       </c>
-      <c r="B8" t="n">
-        <v>10472</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3426,54 +3110,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57722</v>
       </c>
-      <c r="B9" t="n">
-        <v>124926</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3487,54 +3167,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57722</v>
       </c>
-      <c r="B10" t="n">
-        <v>124927</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3554,54 +3230,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57722</v>
       </c>
-      <c r="B11" t="n">
-        <v>4831</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3615,54 +3287,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57722</v>
       </c>
-      <c r="B12" t="n">
-        <v>124928</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3676,54 +3344,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57722</v>
       </c>
-      <c r="B13" t="n">
-        <v>34574</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3737,54 +3401,50 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57722</v>
       </c>
-      <c r="B14" t="n">
-        <v>16655</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3804,54 +3464,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57722</v>
       </c>
-      <c r="B15" t="n">
-        <v>124929</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3871,54 +3527,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57722</v>
       </c>
-      <c r="B16" t="n">
-        <v>124930</v>
-      </c>
-      <c r="C16" t="s">
-        <v>147</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3932,54 +3584,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57722</v>
       </c>
-      <c r="B17" t="n">
-        <v>124931</v>
-      </c>
-      <c r="C17" t="s">
-        <v>154</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3993,54 +3641,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57722</v>
       </c>
-      <c r="B18" t="n">
-        <v>124932</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4058,54 +3702,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57722</v>
       </c>
-      <c r="B19" t="n">
-        <v>124933</v>
-      </c>
-      <c r="C19" t="s">
-        <v>167</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4119,54 +3759,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57722</v>
       </c>
-      <c r="B20" t="n">
-        <v>2109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>174</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4184,54 +3820,50 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57722</v>
       </c>
-      <c r="B21" t="n">
-        <v>124934</v>
-      </c>
-      <c r="C21" t="s">
-        <v>180</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4245,54 +3877,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57722</v>
       </c>
-      <c r="B22" t="n">
-        <v>3062</v>
-      </c>
-      <c r="C22" t="s">
-        <v>187</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4312,54 +3940,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57722</v>
       </c>
-      <c r="B23" t="n">
-        <v>18230</v>
-      </c>
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4373,54 +3997,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57722</v>
       </c>
-      <c r="B24" t="n">
-        <v>124935</v>
-      </c>
-      <c r="C24" t="s">
-        <v>201</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4434,54 +4054,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57722</v>
       </c>
-      <c r="B25" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C25" t="s">
-        <v>208</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4501,54 +4117,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57722</v>
       </c>
-      <c r="B26" t="n">
-        <v>124936</v>
-      </c>
-      <c r="C26" t="s">
-        <v>216</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="O26" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4568,54 +4180,50 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57722</v>
       </c>
-      <c r="B27" t="n">
-        <v>124937</v>
-      </c>
-      <c r="C27" t="s">
-        <v>224</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4629,54 +4237,50 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57722</v>
       </c>
-      <c r="B28" t="n">
-        <v>70544</v>
-      </c>
-      <c r="C28" t="s">
-        <v>230</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4696,54 +4300,50 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57722</v>
       </c>
-      <c r="B29" t="n">
-        <v>124938</v>
-      </c>
-      <c r="C29" t="s">
-        <v>237</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="J29" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4763,54 +4363,50 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57722</v>
       </c>
-      <c r="B30" t="n">
-        <v>113729</v>
-      </c>
-      <c r="C30" t="s">
-        <v>244</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4830,54 +4426,50 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57722</v>
       </c>
-      <c r="B31" t="n">
-        <v>124939</v>
-      </c>
-      <c r="C31" t="s">
-        <v>251</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="J31" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="K31" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4897,54 +4489,50 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57722</v>
       </c>
-      <c r="B32" t="n">
-        <v>124940</v>
-      </c>
-      <c r="C32" t="s">
-        <v>258</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="J32" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="K32" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4964,98 +4552,111 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57722</v>
       </c>
-      <c r="B33" t="n">
-        <v>124941</v>
-      </c>
-      <c r="C33" t="s">
-        <v>265</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>267</v>
-      </c>
-      <c r="J33" t="s"/>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
-      <c r="M33" t="s"/>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>233</v>
+      </c>
+      <c r="O33" t="s">
+        <v>114</v>
+      </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57722</v>
       </c>
-      <c r="B34" t="n">
-        <v>21941</v>
-      </c>
-      <c r="C34" t="s">
-        <v>268</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="J34" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="K34" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5073,54 +4674,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57722</v>
       </c>
-      <c r="B35" t="n">
-        <v>124942</v>
-      </c>
-      <c r="C35" t="s">
-        <v>274</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="J35" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="K35" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="L35" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="O35" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5140,54 +4737,50 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57722</v>
       </c>
-      <c r="B36" t="n">
-        <v>124943</v>
-      </c>
-      <c r="C36" t="s">
-        <v>281</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5205,54 +4798,50 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57722</v>
       </c>
-      <c r="B37" t="n">
-        <v>46773</v>
-      </c>
-      <c r="C37" t="s">
-        <v>289</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="J37" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5270,54 +4859,50 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57722</v>
       </c>
-      <c r="B38" t="n">
-        <v>124944</v>
-      </c>
-      <c r="C38" t="s">
-        <v>296</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="J38" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="K38" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5337,54 +4922,50 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57722</v>
       </c>
-      <c r="B39" t="n">
-        <v>124945</v>
-      </c>
-      <c r="C39" t="s">
-        <v>303</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="J39" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5402,54 +4983,50 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57722</v>
       </c>
-      <c r="B40" t="n">
-        <v>124946</v>
-      </c>
-      <c r="C40" t="s">
-        <v>310</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="K40" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="L40" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5469,45 +5046,41 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57722</v>
       </c>
-      <c r="B41" t="n">
-        <v>124947</v>
-      </c>
-      <c r="C41" t="s">
-        <v>317</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="J41" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
@@ -5526,54 +5099,50 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57722</v>
       </c>
-      <c r="B42" t="n">
-        <v>124948</v>
-      </c>
-      <c r="C42" t="s">
-        <v>324</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="J42" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="K42" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="L42" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5589,60 +5158,56 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="X42" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="Y42" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57722</v>
       </c>
-      <c r="B43" t="n">
-        <v>124949</v>
-      </c>
-      <c r="C43" t="s">
-        <v>334</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="J43" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="O43" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5654,60 +5219,56 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="Y43" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57722</v>
       </c>
-      <c r="B44" t="n">
-        <v>14578</v>
-      </c>
-      <c r="C44" t="s">
-        <v>343</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="J44" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5725,60 +5286,56 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="Y44" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57722</v>
       </c>
-      <c r="B45" t="n">
-        <v>1903</v>
-      </c>
-      <c r="C45" t="s">
-        <v>351</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="J45" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="K45" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5794,60 +5351,56 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="X45" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="Y45" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57722</v>
       </c>
-      <c r="B46" t="n">
-        <v>733</v>
-      </c>
-      <c r="C46" t="s">
-        <v>359</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="J46" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="K46" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5865,54 +5418,50 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57722</v>
       </c>
-      <c r="B47" t="n">
-        <v>29494</v>
-      </c>
-      <c r="C47" t="s">
-        <v>366</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="J47" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="O47" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5926,54 +5475,50 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57722</v>
       </c>
-      <c r="B48" t="n">
-        <v>21074</v>
-      </c>
-      <c r="C48" t="s">
-        <v>373</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="J48" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="K48" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="L48" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5993,54 +5538,50 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57722</v>
       </c>
-      <c r="B49" t="n">
-        <v>124950</v>
-      </c>
-      <c r="C49" t="s">
-        <v>379</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="J49" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="K49" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6060,54 +5601,50 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57722</v>
       </c>
-      <c r="B50" t="n">
-        <v>124951</v>
-      </c>
-      <c r="C50" t="s">
-        <v>385</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="J50" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="K50" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="O50" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6121,54 +5658,50 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57722</v>
       </c>
-      <c r="B51" t="n">
-        <v>3679</v>
-      </c>
-      <c r="C51" t="s">
-        <v>393</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="J51" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="K51" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6188,54 +5721,50 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57722</v>
       </c>
-      <c r="B52" t="n">
-        <v>124952</v>
-      </c>
-      <c r="C52" t="s">
-        <v>399</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="J52" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="L52" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -6255,54 +5784,50 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57722</v>
       </c>
-      <c r="B53" t="n">
-        <v>124953</v>
-      </c>
-      <c r="C53" t="s">
-        <v>405</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="J53" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="K53" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6316,54 +5841,50 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57722</v>
       </c>
-      <c r="B54" t="n">
-        <v>67163</v>
-      </c>
-      <c r="C54" t="s">
-        <v>411</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="J54" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="K54" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="L54" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="O54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6383,54 +5904,50 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57722</v>
       </c>
-      <c r="B55" t="n">
-        <v>36836</v>
-      </c>
-      <c r="C55" t="s">
-        <v>417</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="J55" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="K55" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="L55" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="O55" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6454,54 +5971,50 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57722</v>
       </c>
-      <c r="B56" t="n">
-        <v>124954</v>
-      </c>
-      <c r="C56" t="s">
-        <v>424</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="J56" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="K56" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="L56" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6521,54 +6034,50 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57722</v>
       </c>
-      <c r="B57" t="n">
-        <v>124938</v>
-      </c>
-      <c r="C57" t="s">
-        <v>251</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="J57" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="K57" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="L57" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="O57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6592,54 +6101,50 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57722</v>
       </c>
-      <c r="B58" t="n">
-        <v>99707</v>
-      </c>
-      <c r="C58" t="s">
-        <v>438</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="J58" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="K58" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="L58" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="O58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6655,54 +6160,50 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57722</v>
       </c>
-      <c r="B59" t="n">
-        <v>124955</v>
-      </c>
-      <c r="C59" t="s">
-        <v>444</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="J59" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="K59" t="s">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="L59" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="O59" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6720,60 +6221,56 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="X59" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="Y59" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57722</v>
       </c>
-      <c r="B60" t="n">
-        <v>17249</v>
-      </c>
-      <c r="C60" t="s">
-        <v>453</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>454</v>
+        <v>400</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="J60" t="s">
-        <v>456</v>
+        <v>402</v>
       </c>
       <c r="K60" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="O60" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6785,60 +6282,56 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="X60" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="Y60" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57722</v>
       </c>
-      <c r="B61" t="n">
-        <v>124956</v>
-      </c>
-      <c r="C61" t="s">
-        <v>460</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="J61" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="K61" t="s">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="L61" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6850,60 +6343,56 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="X61" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="Y61" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57722</v>
       </c>
-      <c r="B62" t="n">
-        <v>26565</v>
-      </c>
-      <c r="C62" t="s">
-        <v>467</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="J62" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="K62" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="L62" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>473</v>
+        <v>417</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6921,60 +6410,56 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="X62" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="Y62" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57722</v>
       </c>
-      <c r="B63" t="n">
-        <v>2629</v>
-      </c>
-      <c r="C63" t="s">
-        <v>475</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>476</v>
+        <v>419</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="J63" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="K63" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="L63" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>473</v>
+        <v>417</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -6992,60 +6477,56 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="X63" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="Y63" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57722</v>
       </c>
-      <c r="B64" t="n">
-        <v>85273</v>
-      </c>
-      <c r="C64" t="s">
-        <v>482</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="J64" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="K64" t="s">
-        <v>486</v>
+        <v>428</v>
       </c>
       <c r="L64" t="s">
-        <v>487</v>
+        <v>429</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>488</v>
+        <v>430</v>
       </c>
       <c r="O64" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7057,51 +6538,47 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="X64" t="s">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="Y64" t="s">
-        <v>491</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57722</v>
       </c>
-      <c r="B65" t="n">
-        <v>124957</v>
-      </c>
-      <c r="C65" t="s">
-        <v>492</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>493</v>
+        <v>434</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>494</v>
+        <v>435</v>
       </c>
       <c r="J65" t="s">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="K65" t="s">
-        <v>496</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s">
-        <v>497</v>
+        <v>438</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
@@ -7128,60 +6605,56 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="X65" t="s">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="Y65" t="s">
-        <v>498</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57722</v>
       </c>
-      <c r="B66" t="n">
-        <v>124958</v>
-      </c>
-      <c r="C66" t="s">
-        <v>499</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="J66" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="K66" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="L66" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="O66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7203,60 +6676,56 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="X66" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="Y66" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>57722</v>
       </c>
-      <c r="B67" t="n">
-        <v>124959</v>
-      </c>
-      <c r="C67" t="s">
-        <v>509</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="J67" t="s">
-        <v>512</v>
+        <v>451</v>
       </c>
       <c r="K67" t="s">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="L67" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="O67" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7278,60 +6747,56 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="X67" t="s">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="Y67" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>57722</v>
       </c>
-      <c r="B68" t="n">
-        <v>124960</v>
-      </c>
-      <c r="C68" t="s">
-        <v>518</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="J68" t="s">
-        <v>521</v>
+        <v>459</v>
       </c>
       <c r="K68" t="s">
-        <v>522</v>
+        <v>460</v>
       </c>
       <c r="L68" t="s">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="O68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7353,60 +6818,56 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="X68" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="Y68" t="s">
-        <v>527</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>57722</v>
       </c>
-      <c r="B69" t="n">
-        <v>5616</v>
-      </c>
-      <c r="C69" t="s">
-        <v>528</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>529</v>
+        <v>466</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
       <c r="J69" t="s">
-        <v>531</v>
+        <v>468</v>
       </c>
       <c r="K69" t="s">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="L69" t="s">
-        <v>533</v>
+        <v>470</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>534</v>
+        <v>471</v>
       </c>
       <c r="O69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7428,60 +6889,56 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="X69" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="Y69" t="s">
-        <v>535</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>57722</v>
       </c>
-      <c r="B70" t="n">
-        <v>124961</v>
-      </c>
-      <c r="C70" t="s">
-        <v>536</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>537</v>
+        <v>473</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>538</v>
+        <v>474</v>
       </c>
       <c r="J70" t="s">
-        <v>539</v>
+        <v>475</v>
       </c>
       <c r="K70" t="s">
-        <v>540</v>
+        <v>476</v>
       </c>
       <c r="L70" t="s">
-        <v>541</v>
+        <v>477</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>524</v>
+        <v>462</v>
       </c>
       <c r="O70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7503,60 +6960,56 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="X70" t="s">
-        <v>526</v>
+        <v>464</v>
       </c>
       <c r="Y70" t="s">
-        <v>542</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>57722</v>
       </c>
-      <c r="B71" t="n">
-        <v>124962</v>
-      </c>
-      <c r="C71" t="s">
-        <v>543</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>544</v>
+        <v>479</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>545</v>
+        <v>480</v>
       </c>
       <c r="J71" t="s">
-        <v>546</v>
+        <v>481</v>
       </c>
       <c r="K71" t="s">
-        <v>547</v>
+        <v>482</v>
       </c>
       <c r="L71" t="s">
-        <v>548</v>
+        <v>483</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>534</v>
+        <v>471</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7578,60 +7031,56 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>549</v>
+        <v>484</v>
       </c>
       <c r="X71" t="s">
-        <v>550</v>
+        <v>485</v>
       </c>
       <c r="Y71" t="s">
-        <v>551</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>57722</v>
       </c>
-      <c r="B72" t="n">
-        <v>25943</v>
-      </c>
-      <c r="C72" t="s">
-        <v>552</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>554</v>
+        <v>488</v>
       </c>
       <c r="J72" t="s">
-        <v>555</v>
+        <v>489</v>
       </c>
       <c r="K72" t="s">
-        <v>556</v>
+        <v>490</v>
       </c>
       <c r="L72" t="s">
-        <v>557</v>
+        <v>491</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>558</v>
+        <v>492</v>
       </c>
       <c r="O72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7653,60 +7102,56 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>559</v>
+        <v>493</v>
       </c>
       <c r="X72" t="s">
-        <v>560</v>
+        <v>494</v>
       </c>
       <c r="Y72" t="s">
-        <v>561</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>57722</v>
       </c>
-      <c r="B73" t="n">
-        <v>10744</v>
-      </c>
-      <c r="C73" t="s">
-        <v>562</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
       <c r="J73" t="s">
-        <v>565</v>
+        <v>498</v>
       </c>
       <c r="K73" t="s">
-        <v>566</v>
+        <v>499</v>
       </c>
       <c r="L73" t="s">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>568</v>
+        <v>501</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7728,60 +7173,56 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>569</v>
+        <v>502</v>
       </c>
       <c r="X73" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="Y73" t="s">
-        <v>571</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>57722</v>
       </c>
-      <c r="B74" t="n">
-        <v>124963</v>
-      </c>
-      <c r="C74" t="s">
-        <v>572</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>573</v>
+        <v>505</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74" t="s">
-        <v>574</v>
+        <v>506</v>
       </c>
       <c r="J74" t="s">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="K74" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
       <c r="L74" t="s">
-        <v>577</v>
+        <v>509</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7793,60 +7234,56 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
       <c r="X74" t="s">
-        <v>580</v>
+        <v>512</v>
       </c>
       <c r="Y74" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>57722</v>
       </c>
-      <c r="B75" t="n">
-        <v>124964</v>
-      </c>
-      <c r="C75" t="s">
-        <v>582</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>583</v>
+        <v>514</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
       <c r="J75" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="K75" t="s">
-        <v>586</v>
+        <v>517</v>
       </c>
       <c r="L75" t="s">
-        <v>587</v>
+        <v>518</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>568</v>
+        <v>501</v>
       </c>
       <c r="O75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7868,60 +7305,56 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="X75" t="s">
-        <v>589</v>
+        <v>520</v>
       </c>
       <c r="Y75" t="s">
-        <v>590</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>57722</v>
       </c>
-      <c r="B76" t="n">
-        <v>124965</v>
-      </c>
-      <c r="C76" t="s">
-        <v>591</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>592</v>
+        <v>522</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>593</v>
+        <v>523</v>
       </c>
       <c r="J76" t="s">
-        <v>594</v>
+        <v>524</v>
       </c>
       <c r="K76" t="s">
-        <v>595</v>
+        <v>525</v>
       </c>
       <c r="L76" t="s">
-        <v>596</v>
+        <v>526</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
       <c r="O76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7945,54 +7378,50 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>596</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>57722</v>
       </c>
-      <c r="B77" t="n">
-        <v>4839</v>
-      </c>
-      <c r="C77" t="s">
-        <v>597</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>598</v>
+        <v>527</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I77" t="s">
-        <v>599</v>
+        <v>528</v>
       </c>
       <c r="J77" t="s">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="K77" t="s">
-        <v>601</v>
+        <v>530</v>
       </c>
       <c r="L77" t="s">
-        <v>602</v>
+        <v>531</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="O77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -8006,54 +7435,50 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>602</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>57722</v>
       </c>
-      <c r="B78" t="n">
-        <v>124966</v>
-      </c>
-      <c r="C78" t="s">
-        <v>604</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>605</v>
+        <v>533</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I78" t="s">
-        <v>606</v>
+        <v>534</v>
       </c>
       <c r="J78" t="s">
-        <v>607</v>
+        <v>535</v>
       </c>
       <c r="K78" t="s">
-        <v>608</v>
+        <v>536</v>
       </c>
       <c r="L78" t="s">
-        <v>609</v>
+        <v>537</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="O78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8077,54 +7502,50 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>609</v>
+        <v>537</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>57722</v>
       </c>
-      <c r="B79" t="n">
-        <v>124967</v>
-      </c>
-      <c r="C79" t="s">
-        <v>610</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>611</v>
+        <v>538</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s">
-        <v>612</v>
+        <v>539</v>
       </c>
       <c r="J79" t="s">
-        <v>613</v>
+        <v>540</v>
       </c>
       <c r="K79" t="s">
-        <v>614</v>
+        <v>541</v>
       </c>
       <c r="L79" t="s">
-        <v>615</v>
+        <v>542</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>616</v>
+        <v>543</v>
       </c>
       <c r="O79" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -8148,45 +7569,41 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>615</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>57722</v>
       </c>
-      <c r="B80" t="n">
-        <v>124968</v>
-      </c>
-      <c r="C80" t="s">
-        <v>617</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>618</v>
+        <v>544</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I80" t="s">
-        <v>619</v>
+        <v>545</v>
       </c>
       <c r="J80" t="s">
-        <v>620</v>
+        <v>546</v>
       </c>
       <c r="K80" t="s">
-        <v>621</v>
+        <v>547</v>
       </c>
       <c r="L80" t="s">
-        <v>622</v>
+        <v>548</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
@@ -8215,54 +7632,50 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>622</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>57722</v>
       </c>
-      <c r="B81" t="n">
-        <v>124969</v>
-      </c>
-      <c r="C81" t="s">
-        <v>623</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>624</v>
+        <v>549</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I81" t="s">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="J81" t="s">
-        <v>626</v>
+        <v>551</v>
       </c>
       <c r="K81" t="s">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="L81" t="s">
-        <v>628</v>
+        <v>553</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>629</v>
+        <v>554</v>
       </c>
       <c r="O81" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -8286,54 +7699,50 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>630</v>
+        <v>555</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>57722</v>
       </c>
-      <c r="B82" t="n">
-        <v>6195</v>
-      </c>
-      <c r="C82" t="s">
-        <v>631</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I82" t="s">
-        <v>633</v>
+        <v>557</v>
       </c>
       <c r="J82" t="s">
-        <v>634</v>
+        <v>558</v>
       </c>
       <c r="K82" t="s">
-        <v>635</v>
+        <v>559</v>
       </c>
       <c r="L82" t="s">
-        <v>636</v>
+        <v>560</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>637</v>
+        <v>561</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8357,54 +7766,50 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>636</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>57722</v>
       </c>
-      <c r="B83" t="n">
-        <v>60613</v>
-      </c>
-      <c r="C83" t="s">
-        <v>638</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>639</v>
+        <v>562</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I83" t="s">
-        <v>640</v>
+        <v>563</v>
       </c>
       <c r="J83" t="s">
-        <v>641</v>
+        <v>564</v>
       </c>
       <c r="K83" t="s">
-        <v>642</v>
+        <v>565</v>
       </c>
       <c r="L83" t="s">
-        <v>643</v>
+        <v>566</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>637</v>
+        <v>561</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8428,54 +7833,50 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>643</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>57722</v>
       </c>
-      <c r="B84" t="n">
-        <v>124970</v>
-      </c>
-      <c r="C84" t="s">
-        <v>644</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>645</v>
+        <v>567</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I84" t="s">
-        <v>646</v>
+        <v>568</v>
       </c>
       <c r="J84" t="s">
-        <v>647</v>
+        <v>569</v>
       </c>
       <c r="K84" t="s">
-        <v>648</v>
+        <v>570</v>
       </c>
       <c r="L84" t="s">
-        <v>649</v>
+        <v>571</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>650</v>
+        <v>572</v>
       </c>
       <c r="O84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8499,45 +7900,41 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>649</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>57722</v>
       </c>
-      <c r="B85" t="n">
-        <v>89962</v>
-      </c>
-      <c r="C85" t="s">
-        <v>651</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>652</v>
+        <v>573</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I85" t="s">
-        <v>653</v>
+        <v>574</v>
       </c>
       <c r="J85" t="s">
-        <v>654</v>
+        <v>575</v>
       </c>
       <c r="K85" t="s">
-        <v>655</v>
+        <v>576</v>
       </c>
       <c r="L85" t="s">
-        <v>656</v>
+        <v>577</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
@@ -8566,45 +7963,41 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>656</v>
+        <v>577</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>57722</v>
       </c>
-      <c r="B86" t="n">
-        <v>124971</v>
-      </c>
-      <c r="C86" t="s">
-        <v>657</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>658</v>
+        <v>578</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I86" t="s">
-        <v>659</v>
+        <v>579</v>
       </c>
       <c r="J86" t="s">
-        <v>660</v>
+        <v>580</v>
       </c>
       <c r="K86" t="s">
-        <v>661</v>
+        <v>581</v>
       </c>
       <c r="L86" t="s">
-        <v>662</v>
+        <v>582</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
@@ -8631,60 +8024,56 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>663</v>
+        <v>583</v>
       </c>
       <c r="X86" t="s">
-        <v>664</v>
+        <v>584</v>
       </c>
       <c r="Y86" t="s">
-        <v>665</v>
+        <v>585</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>57722</v>
       </c>
-      <c r="B87" t="n">
-        <v>124972</v>
-      </c>
-      <c r="C87" t="s">
-        <v>666</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>667</v>
+        <v>586</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I87" t="s">
-        <v>668</v>
+        <v>587</v>
       </c>
       <c r="J87" t="s">
-        <v>669</v>
+        <v>588</v>
       </c>
       <c r="K87" t="s">
-        <v>670</v>
+        <v>589</v>
       </c>
       <c r="L87" t="s">
-        <v>671</v>
+        <v>590</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>672</v>
+        <v>591</v>
       </c>
       <c r="O87" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P87" t="n">
         <v>2</v>
@@ -8708,54 +8097,50 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>671</v>
+        <v>590</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>57722</v>
       </c>
-      <c r="B88" t="n">
-        <v>124973</v>
-      </c>
-      <c r="C88" t="s">
-        <v>673</v>
-      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>674</v>
+        <v>592</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I88" t="s">
-        <v>675</v>
+        <v>593</v>
       </c>
       <c r="J88" t="s">
-        <v>676</v>
+        <v>594</v>
       </c>
       <c r="K88" t="s">
-        <v>677</v>
+        <v>595</v>
       </c>
       <c r="L88" t="s">
-        <v>678</v>
+        <v>596</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>679</v>
+        <v>597</v>
       </c>
       <c r="O88" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8779,54 +8164,50 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>678</v>
+        <v>596</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>57722</v>
       </c>
-      <c r="B89" t="n">
-        <v>124974</v>
-      </c>
-      <c r="C89" t="s">
-        <v>680</v>
-      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>681</v>
+        <v>598</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I89" t="s">
-        <v>682</v>
+        <v>599</v>
       </c>
       <c r="J89" t="s">
-        <v>683</v>
+        <v>600</v>
       </c>
       <c r="K89" t="s">
-        <v>684</v>
+        <v>601</v>
       </c>
       <c r="L89" t="s">
-        <v>685</v>
+        <v>602</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>686</v>
+        <v>603</v>
       </c>
       <c r="O89" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8850,54 +8231,50 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>687</v>
+        <v>604</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>57722</v>
       </c>
-      <c r="B90" t="n">
-        <v>124975</v>
-      </c>
-      <c r="C90" t="s">
-        <v>688</v>
-      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>689</v>
+        <v>605</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I90" t="s">
-        <v>690</v>
+        <v>606</v>
       </c>
       <c r="J90" t="s">
-        <v>691</v>
+        <v>607</v>
       </c>
       <c r="K90" t="s">
-        <v>692</v>
+        <v>608</v>
       </c>
       <c r="L90" t="s">
-        <v>693</v>
+        <v>609</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>694</v>
+        <v>610</v>
       </c>
       <c r="O90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8921,54 +8298,50 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>693</v>
+        <v>609</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>57722</v>
       </c>
-      <c r="B91" t="n">
-        <v>28971</v>
-      </c>
-      <c r="C91" t="s">
-        <v>695</v>
-      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>696</v>
+        <v>611</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I91" t="s">
-        <v>697</v>
+        <v>612</v>
       </c>
       <c r="J91" t="s">
-        <v>698</v>
+        <v>613</v>
       </c>
       <c r="K91" t="s">
-        <v>699</v>
+        <v>614</v>
       </c>
       <c r="L91" t="s">
-        <v>700</v>
+        <v>615</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>701</v>
+        <v>616</v>
       </c>
       <c r="O91" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8992,54 +8365,50 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>700</v>
+        <v>615</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>57722</v>
       </c>
-      <c r="B92" t="n">
-        <v>47452</v>
-      </c>
-      <c r="C92" t="s">
-        <v>702</v>
-      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>703</v>
+        <v>617</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I92" t="s">
-        <v>704</v>
+        <v>618</v>
       </c>
       <c r="J92" t="s">
-        <v>705</v>
+        <v>619</v>
       </c>
       <c r="K92" t="s">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="L92" t="s">
-        <v>707</v>
+        <v>621</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>708</v>
+        <v>622</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -9063,54 +8432,50 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>709</v>
+        <v>623</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>57722</v>
       </c>
-      <c r="B93" t="n">
-        <v>20503</v>
-      </c>
-      <c r="C93" t="s">
-        <v>710</v>
-      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s">
-        <v>711</v>
+        <v>624</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I93" t="s">
-        <v>712</v>
+        <v>625</v>
       </c>
       <c r="J93" t="s">
-        <v>713</v>
+        <v>626</v>
       </c>
       <c r="K93" t="s">
-        <v>714</v>
+        <v>627</v>
       </c>
       <c r="L93" t="s">
-        <v>715</v>
+        <v>628</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>716</v>
+        <v>629</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -9134,54 +8499,50 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>715</v>
+        <v>628</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>57722</v>
       </c>
-      <c r="B94" t="n">
-        <v>124976</v>
-      </c>
-      <c r="C94" t="s">
-        <v>717</v>
-      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>718</v>
+        <v>630</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I94" t="s">
-        <v>719</v>
+        <v>631</v>
       </c>
       <c r="J94" t="s">
-        <v>720</v>
+        <v>632</v>
       </c>
       <c r="K94" t="s">
-        <v>721</v>
+        <v>633</v>
       </c>
       <c r="L94" t="s">
-        <v>722</v>
+        <v>634</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>723</v>
+        <v>635</v>
       </c>
       <c r="O94" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9203,60 +8564,56 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>724</v>
+        <v>636</v>
       </c>
       <c r="X94" t="s">
-        <v>725</v>
+        <v>637</v>
       </c>
       <c r="Y94" t="s">
-        <v>726</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>57722</v>
       </c>
-      <c r="B95" t="n">
-        <v>124977</v>
-      </c>
-      <c r="C95" t="s">
-        <v>727</v>
-      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>728</v>
+        <v>639</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I95" t="s">
-        <v>729</v>
+        <v>640</v>
       </c>
       <c r="J95" t="s">
-        <v>730</v>
+        <v>641</v>
       </c>
       <c r="K95" t="s">
-        <v>731</v>
+        <v>642</v>
       </c>
       <c r="L95" t="s">
-        <v>732</v>
+        <v>643</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>733</v>
+        <v>644</v>
       </c>
       <c r="O95" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9278,60 +8635,56 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>734</v>
+        <v>645</v>
       </c>
       <c r="X95" t="s">
-        <v>735</v>
+        <v>646</v>
       </c>
       <c r="Y95" t="s">
-        <v>736</v>
+        <v>647</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>57722</v>
       </c>
-      <c r="B96" t="n">
-        <v>304</v>
-      </c>
-      <c r="C96" t="s">
-        <v>737</v>
-      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>738</v>
+        <v>648</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I96" t="s">
-        <v>739</v>
+        <v>649</v>
       </c>
       <c r="J96" t="s">
-        <v>740</v>
+        <v>650</v>
       </c>
       <c r="K96" t="s">
-        <v>741</v>
+        <v>651</v>
       </c>
       <c r="L96" t="s">
-        <v>742</v>
+        <v>652</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>743</v>
+        <v>653</v>
       </c>
       <c r="O96" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9355,54 +8708,50 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>742</v>
+        <v>652</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>57722</v>
       </c>
-      <c r="B97" t="n">
-        <v>124978</v>
-      </c>
-      <c r="C97" t="s">
-        <v>744</v>
-      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>745</v>
+        <v>654</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I97" t="s">
-        <v>746</v>
+        <v>655</v>
       </c>
       <c r="J97" t="s">
-        <v>747</v>
+        <v>656</v>
       </c>
       <c r="K97" t="s">
-        <v>748</v>
+        <v>657</v>
       </c>
       <c r="L97" t="s">
-        <v>749</v>
+        <v>658</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>750</v>
+        <v>659</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9426,54 +8775,50 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>751</v>
+        <v>660</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>57722</v>
       </c>
-      <c r="B98" t="n">
-        <v>19253</v>
-      </c>
-      <c r="C98" t="s">
-        <v>752</v>
-      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>753</v>
+        <v>661</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I98" t="s">
-        <v>754</v>
+        <v>662</v>
       </c>
       <c r="J98" t="s">
-        <v>755</v>
+        <v>663</v>
       </c>
       <c r="K98" t="s">
-        <v>756</v>
+        <v>664</v>
       </c>
       <c r="L98" t="s">
-        <v>757</v>
+        <v>665</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>758</v>
+        <v>666</v>
       </c>
       <c r="O98" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9495,54 +8840,50 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>759</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>57722</v>
       </c>
-      <c r="B99" t="n">
-        <v>124975</v>
-      </c>
-      <c r="C99" t="s">
-        <v>717</v>
-      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s">
-        <v>760</v>
+        <v>668</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I99" t="s">
-        <v>761</v>
+        <v>669</v>
       </c>
       <c r="J99" t="s">
-        <v>762</v>
+        <v>670</v>
       </c>
       <c r="K99" t="s">
-        <v>763</v>
+        <v>671</v>
       </c>
       <c r="L99" t="s">
-        <v>764</v>
+        <v>672</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>765</v>
+        <v>673</v>
       </c>
       <c r="O99" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9562,54 +8903,50 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>766</v>
+        <v>674</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>57722</v>
       </c>
-      <c r="B100" t="n">
-        <v>124979</v>
-      </c>
-      <c r="C100" t="s">
-        <v>767</v>
-      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>768</v>
+        <v>675</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I100" t="s">
-        <v>769</v>
+        <v>676</v>
       </c>
       <c r="J100" t="s">
-        <v>770</v>
+        <v>677</v>
       </c>
       <c r="K100" t="s">
-        <v>771</v>
+        <v>678</v>
       </c>
       <c r="L100" t="s">
-        <v>772</v>
+        <v>679</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>773</v>
+        <v>680</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9629,54 +8966,50 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>772</v>
+        <v>679</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>57722</v>
       </c>
-      <c r="B101" t="n">
-        <v>124980</v>
-      </c>
-      <c r="C101" t="s">
-        <v>774</v>
-      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>775</v>
+        <v>681</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I101" t="s">
-        <v>776</v>
+        <v>682</v>
       </c>
       <c r="J101" t="s">
-        <v>777</v>
+        <v>683</v>
       </c>
       <c r="K101" t="s">
-        <v>778</v>
+        <v>684</v>
       </c>
       <c r="L101" t="s">
-        <v>779</v>
+        <v>685</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>780</v>
+        <v>686</v>
       </c>
       <c r="O101" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9700,54 +9033,50 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>779</v>
+        <v>685</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>57722</v>
       </c>
-      <c r="B102" t="n">
-        <v>124981</v>
-      </c>
-      <c r="C102" t="s">
-        <v>781</v>
-      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>782</v>
+        <v>687</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I102" t="s">
-        <v>783</v>
+        <v>688</v>
       </c>
       <c r="J102" t="s">
-        <v>784</v>
+        <v>689</v>
       </c>
       <c r="K102" t="s">
-        <v>785</v>
+        <v>690</v>
       </c>
       <c r="L102" t="s">
-        <v>786</v>
+        <v>691</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>787</v>
+        <v>692</v>
       </c>
       <c r="O102" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9771,54 +9100,50 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>786</v>
+        <v>691</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>57722</v>
       </c>
-      <c r="B103" t="n">
-        <v>124956</v>
-      </c>
-      <c r="C103" t="s">
-        <v>492</v>
-      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>788</v>
+        <v>693</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I103" t="s">
-        <v>789</v>
+        <v>694</v>
       </c>
       <c r="J103" t="s">
-        <v>790</v>
+        <v>695</v>
       </c>
       <c r="K103" t="s">
-        <v>791</v>
+        <v>696</v>
       </c>
       <c r="L103" t="s">
-        <v>792</v>
+        <v>697</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>793</v>
+        <v>698</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="s"/>
@@ -9832,54 +9157,50 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>792</v>
+        <v>697</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>57722</v>
       </c>
-      <c r="B104" t="n">
-        <v>44035</v>
-      </c>
-      <c r="C104" t="s">
-        <v>794</v>
-      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>795</v>
+        <v>699</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I104" t="s">
-        <v>796</v>
+        <v>700</v>
       </c>
       <c r="J104" t="s">
-        <v>797</v>
+        <v>701</v>
       </c>
       <c r="K104" t="s">
-        <v>798</v>
+        <v>702</v>
       </c>
       <c r="L104" t="s">
-        <v>799</v>
+        <v>703</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>800</v>
+        <v>704</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9901,13 +9222,13 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
       <c r="X104" t="s">
-        <v>802</v>
+        <v>706</v>
       </c>
       <c r="Y104" t="s">
-        <v>803</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
